--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="302">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,69 +48,36 @@
     <t xml:space="preserve"> 82eaca102636</t>
   </si>
   <si>
-    <t xml:space="preserve"> 740104ce-7def-4203-9906-fe1c42c4a399</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102ba1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 78130006-fecf-4c74-a875-1c9e21fa6e74</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca10277c</t>
   </si>
   <si>
-    <t xml:space="preserve"> b3e2e1f8-49d8-4fdc-ad0c-c634a0baeebd</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bc0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4818d38f-3995-41a0-ad63-6dbd5fcc6125</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027e4</t>
   </si>
   <si>
-    <t xml:space="preserve"> d159e6ea-ea02-41e5-ae69-06a1a4221cd2</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027e1</t>
   </si>
   <si>
-    <t xml:space="preserve"> b4e2a8c1-cd61-4c5a-9d9f-07f5e549ec94</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bbc</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6687427f-e3f7-4c01-8a37-67045ec7d698</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027ea</t>
   </si>
   <si>
-    <t xml:space="preserve"> 42030db2-8f7f-4af9-adf5-1aa4d09d0cf0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bc2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 83f2f19b-99d0-4f76-a788-ca0b4fc8b1e4</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027e0</t>
   </si>
   <si>
-    <t xml:space="preserve"> a568a6bd-33d3-4d53-bc2d-0e3639d17f24</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102b94</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7a40ba16-3301-48e1-b146-c6a5b49555ab</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027ff</t>
   </si>
   <si>
@@ -120,66 +87,36 @@
     <t xml:space="preserve"> 82eaca102bc1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 65f6d729-cd17-4bdc-82fe-2e56dd17ee6e</t>
-  </si>
-  <si>
     <t xml:space="preserve"> null</t>
   </si>
   <si>
     <t xml:space="preserve"> 82eaca102bca</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33d4127a-a624-4e43-90cb-7deb02aeb74c</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102778</t>
   </si>
   <si>
-    <t xml:space="preserve"> 87bedd65-5c03-42fc-a440-8c11f3b54cc3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bc6</t>
   </si>
   <si>
-    <t xml:space="preserve"> f04b8189-d6fe-4553-8f64-2640e6e70c1f</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102ba9</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9f661aa3-10b1-43bf-acbe-862e3f9b927f</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102786</t>
   </si>
   <si>
-    <t xml:space="preserve"> f8f45cba-c922-4b38-9cb8-a8e26a2b3a6a</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027e3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9dd79e36-1dd6-4aba-b9cb-c11a71d90273</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102b8e</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5400e35d-520e-4917-a98c-56c11d47fbfd</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102ba6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5f09d5ef-b3ba-43fc-a239-e49c949aab9a</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027eb</t>
   </si>
   <si>
-    <t xml:space="preserve"> 82e06896-f172-4d69-802a-2fedb35ed83f</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bb2</t>
   </si>
   <si>
@@ -195,39 +132,21 @@
     <t xml:space="preserve"> 82eaca102b9b</t>
   </si>
   <si>
-    <t xml:space="preserve"> d2ea7bcd-1db9-46de-a404-7ff32e671106</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027fa</t>
   </si>
   <si>
-    <t xml:space="preserve"> b9029556-c612-4b79-8ceb-b32107b233a3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102b9d</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1fcb8e97-7d0e-4545-8c59-1262ea6e5784</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bae</t>
   </si>
   <si>
-    <t xml:space="preserve"> c0147bc9-847f-4168-a5d5-12aee70c6500</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102b8f</t>
   </si>
   <si>
-    <t xml:space="preserve"> 67cd2710-f33b-4372-85f7-ecb7a54eacfc</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bad</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6297e51c-8ee8-4d19-bcd4-8dc41e1240bc</t>
-  </si>
-  <si>
     <t xml:space="preserve"> d5577a5d3991</t>
   </si>
   <si>
@@ -237,48 +156,21 @@
     <t xml:space="preserve"> 38d269be8c3a</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4f71da8a-9701-44b7-8332-1d5d2e3b7200</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 38d269dafad4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3a6d0493-d183-42e2-bea8-41d599f84a54</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027ed</t>
   </si>
   <si>
-    <t xml:space="preserve"> 867a9595-7a6f-4a63-a567-1d62814c7e7d</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bb6</t>
   </si>
   <si>
-    <t xml:space="preserve"> fcdcf5c1-9995-43de-b7b7-6ee7c53cab49</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b7211fc9-9629-47f1-ac71-6a8c22a88e6f</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027e6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0aef7e02-11c4-4854-9d59-983f69da675c</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> b54267cd-d280-4805-8835-7db838d62913</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bb1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 760a897d-29d9-4335-b005-bd505b9dd23f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> c95b1fda-49cd-48b6-847f-8862321b16c8</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bab</t>
   </si>
   <si>
@@ -288,9 +180,6 @@
     <t xml:space="preserve"> 82eaca102bcb</t>
   </si>
   <si>
-    <t xml:space="preserve"> 713ea42a-47cc-4c3e-8a6a-6ea28450d218</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cc73c88f2d11</t>
   </si>
   <si>
@@ -300,144 +189,69 @@
     <t xml:space="preserve"> c8d0d0d0d0d0</t>
   </si>
   <si>
-    <t xml:space="preserve"> a2df7cc3-29f0-4379-894d-6670be8d5862</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cbbb957e-0321-48ea-ad93-ddf95e323bd0</t>
   </si>
   <si>
     <t xml:space="preserve"> c49fd00e420f</t>
   </si>
   <si>
-    <t xml:space="preserve"> 9a3668b1-8715-4d71-9c23-614aa1fe87bf</t>
-  </si>
-  <si>
     <t xml:space="preserve"> d146e8194e1e</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4dd8500f-b033-4552-a652-198a3375f40a</t>
-  </si>
-  <si>
     <t xml:space="preserve"> d6b34b12978b</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0d1d703b-4f03-45d4-9720-84ba0e5e3cfa</t>
-  </si>
-  <si>
     <t xml:space="preserve"> e080b10a3227</t>
   </si>
   <si>
-    <t xml:space="preserve"> 36c46fdd-ab0e-4a57-96aa-9ada6eb99567</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bc5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5da3e1d3-abb0-424b-964a-4e848003c21f</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102779</t>
   </si>
   <si>
-    <t xml:space="preserve"> 74f9611a-585e-4a2b-8804-826fd364d6f3</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102baa</t>
   </si>
   <si>
-    <t xml:space="preserve"> c1afe9e4-dc3e-4d2e-ac0c-4af9746509a0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bb5</t>
   </si>
   <si>
-    <t xml:space="preserve"> fe59c95c-f012-4121-8f4a-513c103450cd</t>
-  </si>
-  <si>
     <t xml:space="preserve"> d2c541922bed</t>
   </si>
   <si>
-    <t xml:space="preserve"> 6d7de5fb-3401-48a0-a449-cb12b88af26b</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 8c41f203f4c5</t>
   </si>
   <si>
     <t xml:space="preserve"> 82eaca10272f</t>
   </si>
   <si>
-    <t xml:space="preserve"> ea5f4811-9569-425a-87cf-ff512845768a</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102800</t>
   </si>
   <si>
-    <t xml:space="preserve"> d0c37f22-d9a9-47ce-9508-9811631bf230</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca10277b</t>
   </si>
   <si>
-    <t xml:space="preserve"> e9988de7-aebd-41ed-916a-ac372aa042b7</t>
-  </si>
-  <si>
     <t xml:space="preserve"> dd5840f772a0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0e349371-d81a-4dab-b1d9-9e6f566ba1db</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a1ec86df-29c3-47f5-a74a-e3dd4b0630af</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 00000000107b</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0342422e-4d59-4930-b55f-1cb361a12fe8</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 77426241-4d20-4c88-bf6b-2d2a9367ac8f</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3fa6db40-040b-40dc-b0f4-389d2c9d08ea</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bedf0547-22b8-4c13-8856-e0d8a2998d47</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102bb4</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2006b352-5c94-4ff3-b36a-f2be1e425579</t>
-  </si>
-  <si>
     <t xml:space="preserve"> f00b66122ff6</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4ff6c71c-4368-4cdd-b3a0-ecf439739895</t>
-  </si>
-  <si>
     <t xml:space="preserve"> e334fb5d35ed</t>
   </si>
   <si>
-    <t xml:space="preserve"> 065fc9d4-6ed5-4618-948b-a7fc37563715</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca1027e7</t>
   </si>
   <si>
-    <t xml:space="preserve"> 5c464b91-929b-49e5-a168-da63c820691b</t>
-  </si>
-  <si>
     <t xml:space="preserve"> cf0a73336af5</t>
   </si>
   <si>
-    <t xml:space="preserve"> 83f32b46-0f01-4b77-9b2e-2838fd83efa9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 83714cda-daac-43b1-b0c0-126c05c9ae55</t>
-  </si>
-  <si>
     <t>蓝牙MAC地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -768,9 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高蔚（北京做房车的公司）</t>
-  </si>
-  <si>
     <t>深圳市龙华区龙华街道清湖社区雪岗北路302号百米生活公司A栋1层</t>
   </si>
   <si>
@@ -938,18 +749,10 @@
     <t>00000000107c</t>
   </si>
   <si>
-    <t>804eb2d9-eadb-4e07-8b6a-657d3e3741e1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新硬件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>907ed11d-ce4d-4ce7-bcb0-998226532488</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>‘89860317492039343676</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,9 +760,6 @@
     <t xml:space="preserve"> 82eaca102787</t>
   </si>
   <si>
-    <t xml:space="preserve"> 25a098ee-b38d-49df-98ba-9f809535387c</t>
-  </si>
-  <si>
     <t xml:space="preserve"> '89860317452041048424'</t>
   </si>
   <si>
@@ -1040,10 +840,6 @@
   </si>
   <si>
     <t>谢浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1245,6 +1041,51 @@
   </si>
   <si>
     <t>18687100222（詹从军）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房车门锁与家庭门锁差距很大，一直未使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>高蔚（北京做房车的公司）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>房车门锁与家庭门锁差距很大，一直未使用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈侃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>faab5273</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yannan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕南国创科技（北京）有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市海淀区宝盛路 宝盛广场B座8层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,7 +1097,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="000000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +1179,14 @@
       <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1432,7 +1281,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1575,6 +1424,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1872,13 +1724,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1886,16 +1738,15 @@
     <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
     <col min="2" max="2" width="18.375" style="5" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="34.125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="22.5" style="32" customWidth="1"/>
-    <col min="10" max="10" width="66.625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="32" customWidth="1"/>
+    <col min="9" max="9" width="66.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1906,28 +1757,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>316</v>
+        <v>160</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="19">
         <v>180401010000001</v>
       </c>
@@ -1938,20 +1786,17 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.25">
+    <row r="3" spans="1:9" ht="14.25">
       <c r="A3" s="19">
         <v>180401010000002</v>
       </c>
@@ -1962,20 +1807,17 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="26" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="14.25">
+        <v>132</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="19">
         <v>180401010000004</v>
       </c>
@@ -1986,23 +1828,20 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25">
+        <v>133</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="19">
         <v>180401010000005</v>
       </c>
@@ -2013,23 +1852,20 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25">
+        <v>134</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="19">
         <v>180401010000006</v>
       </c>
@@ -2040,26 +1876,23 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="26" t="s">
-        <v>301</v>
+        <v>223</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>257</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="19">
         <v>180401010000007</v>
       </c>
@@ -2070,20 +1903,17 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="14.25">
+        <v>116</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="19">
         <v>180401010000008</v>
       </c>
@@ -2094,20 +1924,17 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="26" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25">
+        <v>135</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="19">
         <v>180401010000009</v>
       </c>
@@ -2118,20 +1945,17 @@
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="14.25">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="19">
         <v>180401010000010</v>
       </c>
@@ -2142,20 +1966,17 @@
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="14.25">
+        <v>136</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="19">
         <v>180401010000011</v>
       </c>
@@ -2166,20 +1987,17 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25">
+        <v>137</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="19">
         <v>180401010000012</v>
       </c>
@@ -2190,20 +2008,17 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="26" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="14.25">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="19">
         <v>180401010000013</v>
       </c>
@@ -2214,20 +2029,17 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="14.25">
+        <v>138</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="19">
         <v>180401010000015</v>
       </c>
@@ -2238,20 +2050,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="14.25">
+        <v>139</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="19">
         <v>180401010000016</v>
       </c>
@@ -2262,20 +2071,17 @@
         <v>2</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="14.25">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="19">
         <v>180401010000017</v>
       </c>
@@ -2286,23 +2092,20 @@
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J16" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="14.25">
+        <v>113</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="19">
         <v>180401010000020</v>
       </c>
@@ -2313,25 +2116,22 @@
         <v>4</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="I17" s="32" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="14.25">
+        <v>81</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="19">
         <v>180401010000022</v>
       </c>
@@ -2342,20 +2142,17 @@
         <v>5</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="14.25">
+        <v>106</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="19">
         <v>180401010000024</v>
       </c>
@@ -2366,20 +2163,17 @@
         <v>5</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.25">
+        <v>97</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="19">
         <v>180401010000025</v>
       </c>
@@ -2390,26 +2184,23 @@
         <v>4</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="26" t="s">
-        <v>339</v>
+        <v>94</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>259</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="J20" s="32" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="19">
         <v>180401010000026</v>
       </c>
@@ -2420,20 +2211,17 @@
         <v>5</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="19">
         <v>180401010000027</v>
       </c>
@@ -2444,23 +2232,20 @@
         <v>4</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="I22" s="32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.25">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="19">
         <v>180401010000028</v>
       </c>
@@ -2471,26 +2256,23 @@
         <v>4</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="26" t="s">
-        <v>340</v>
+        <v>93</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>261</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="19">
         <v>180401010000029</v>
       </c>
@@ -2501,23 +2283,20 @@
         <v>4</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I24" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25">
+        <v>88</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="19">
         <v>180401010000030</v>
       </c>
@@ -2528,23 +2307,20 @@
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25">
+        <v>95</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="19">
         <v>180401010000031</v>
       </c>
@@ -2555,23 +2331,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25">
+        <v>83</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="I26" s="48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="14.25">
       <c r="A27" s="19">
         <v>180401010000032</v>
       </c>
@@ -2582,20 +2358,17 @@
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="26" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25">
+        <v>96</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="19">
         <v>180401010000033</v>
       </c>
@@ -2606,23 +2379,20 @@
         <v>4</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25">
+        <v>85</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="19">
         <v>180401010000034</v>
       </c>
@@ -2633,26 +2403,23 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="26" t="s">
-        <v>343</v>
+        <v>84</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="H29" s="32" t="s">
+        <v>264</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="19">
         <v>180401010000037</v>
       </c>
@@ -2663,23 +2430,20 @@
         <v>4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25">
+        <v>114</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="14.25">
       <c r="A31" s="19">
         <v>180401010000038</v>
       </c>
@@ -2690,20 +2454,17 @@
         <v>2</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25">
+        <v>90</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="19">
         <v>180401010000039</v>
       </c>
@@ -2714,20 +2475,17 @@
         <v>2</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25">
+        <v>86</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25">
       <c r="A33" s="19">
         <v>180401010000046</v>
       </c>
@@ -2738,23 +2496,20 @@
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25">
+        <v>101</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="19">
         <v>180401010000047</v>
       </c>
@@ -2765,23 +2520,20 @@
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25">
+        <v>102</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25">
       <c r="A35" s="20">
         <v>180401010000048</v>
       </c>
@@ -2792,20 +2544,17 @@
         <v>2</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25">
+        <v>22</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
       <c r="A36" s="19">
         <v>180401010000049</v>
       </c>
@@ -2813,23 +2562,20 @@
         <v>868744030870590</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="26">
+        <v>103</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="26">
         <v>18665883408</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.25">
+    <row r="37" spans="1:9" ht="14.25">
       <c r="A37" s="20">
         <v>180401010000050</v>
       </c>
@@ -2840,18 +2586,15 @@
         <v>2</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.25">
+        <v>22</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.25">
       <c r="A38" s="19">
         <v>180401010000051</v>
       </c>
@@ -2862,20 +2605,17 @@
         <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.25">
+        <v>104</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25">
       <c r="A39" s="20">
         <v>180401010000052</v>
       </c>
@@ -2886,20 +2626,17 @@
         <v>2</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25">
+        <v>22</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25">
       <c r="A40" s="19">
         <v>180401010000054</v>
       </c>
@@ -2910,20 +2647,17 @@
         <v>2</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.25">
+        <v>115</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="19">
         <v>180401010000055</v>
       </c>
@@ -2934,23 +2668,20 @@
         <v>3</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="I41" s="32">
+        <v>119</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="32">
         <v>13928787891</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.25">
+    <row r="42" spans="1:9" ht="14.25">
       <c r="A42" s="19">
         <v>180401010000056</v>
       </c>
@@ -2961,20 +2692,17 @@
         <v>2</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.25">
+        <v>120</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="19">
         <v>180401010000058</v>
       </c>
@@ -2985,20 +2713,17 @@
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25">
+        <v>121</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="19">
         <v>180401010000060</v>
       </c>
@@ -3009,23 +2734,20 @@
         <v>4</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="I44" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.25">
+        <v>123</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25">
       <c r="A45" s="19">
         <v>180401010000062</v>
       </c>
@@ -3036,23 +2758,20 @@
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="23" customFormat="1" ht="14.25">
+      <c r="F45" s="2"/>
+      <c r="G45" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A46" s="24">
         <v>180401010000063</v>
       </c>
@@ -3063,22 +2782,19 @@
         <v>3</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>350</v>
+        <v>283</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="22"/>
-      <c r="H46" s="36" t="s">
-        <v>314</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" s="34"/>
       <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-    </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" ht="14.25">
+    </row>
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A47" s="24">
         <v>180401010000064</v>
       </c>
@@ -3089,423 +2805,379 @@
         <v>3</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="36" t="s">
-        <v>309</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="H47" s="34"/>
       <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-    </row>
-    <row r="48" spans="1:10" s="23" customFormat="1" ht="14.25">
-      <c r="A48" s="24">
-        <v>180401010000066</v>
-      </c>
-      <c r="B48" s="21">
-        <v>868744030898922</v>
-      </c>
-      <c r="C48" s="22" t="s">
+    </row>
+    <row r="48" spans="1:9" ht="14.25">
+      <c r="A48" s="19">
+        <v>180401010004569</v>
+      </c>
+      <c r="B48" s="1">
+        <v>868744030899094</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="44" customFormat="1" ht="14.25">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+    </row>
+    <row r="50" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A50" s="21">
+        <v>180601010000001</v>
+      </c>
+      <c r="B50" s="21">
+        <v>863703030588730</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.25">
+      <c r="A51" s="1">
+        <v>180601010000002</v>
+      </c>
+      <c r="B51" s="1">
+        <v>863703030143866</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H51" s="32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="A52" s="1">
+        <v>180601010000003</v>
+      </c>
+      <c r="B52" s="1">
+        <v>868744030885796</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D48" s="25" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="G48" s="22"/>
-      <c r="H48" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-    </row>
-    <row r="49" spans="1:10" ht="14.25">
-      <c r="A49" s="19">
-        <v>180401010004569</v>
-      </c>
-      <c r="B49" s="1">
-        <v>868744030899094</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="I49" s="32" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" s="44" customFormat="1" ht="14.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-    </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" ht="14.25">
-      <c r="A51" s="21">
-        <v>180601010000001</v>
-      </c>
-      <c r="B51" s="21">
-        <v>863703030588730</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-    </row>
-    <row r="52" spans="1:10" ht="14.25">
-      <c r="A52" s="1">
-        <v>180601010000002</v>
-      </c>
-      <c r="B52" s="1">
-        <v>863703030143866</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" s="47" customFormat="1" ht="14.25">
+      <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="1:9" s="47" customFormat="1" ht="14.25">
       <c r="A53" s="1">
-        <v>180601010000003</v>
+        <v>180601010000004</v>
       </c>
       <c r="B53" s="1">
-        <v>868744030885796</v>
+        <v>863703032301108</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="H53" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="I53" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="J53" s="46"/>
-    </row>
-    <row r="54" spans="1:10" s="23" customFormat="1" ht="14.25">
-      <c r="A54" s="21">
-        <v>180601010000004</v>
-      </c>
-      <c r="B54" s="21">
-        <v>863703032301108</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>314</v>
-      </c>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-    </row>
-    <row r="55" spans="1:10" ht="14.25">
+        <v>111</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.25">
+      <c r="A54" s="1">
+        <v>180601010000005</v>
+      </c>
+      <c r="B54" s="1">
+        <v>868744030899110</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="47" customFormat="1" ht="14.25">
       <c r="A55" s="1">
-        <v>180601010000005</v>
+        <v>180601010000006</v>
       </c>
       <c r="B55" s="1">
-        <v>868744030899110</v>
-      </c>
-      <c r="C55" s="2" t="s">
+        <v>868744030897866</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" s="47" customFormat="1" ht="14.25">
+      <c r="D55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="1">
-        <v>180601010000006</v>
+        <v>180601010000007</v>
       </c>
       <c r="B56" s="1">
-        <v>868744030897866</v>
-      </c>
-      <c r="C56" s="8" t="s">
+        <v>868744030870376</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H56" s="26" t="s">
-        <v>358</v>
+      <c r="D56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="I56" s="32" t="s">
-        <v>360</v>
-      </c>
-      <c r="J56" s="46"/>
-    </row>
-    <row r="57" spans="1:10" ht="14.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.25">
       <c r="A57" s="1">
-        <v>180601010000007</v>
+        <v>180601010000008</v>
       </c>
       <c r="B57" s="1">
-        <v>868744030870376</v>
+        <v>868744030898989</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="J57" s="32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.25">
-      <c r="A58" s="1">
-        <v>180601010000008</v>
-      </c>
-      <c r="B58" s="1">
-        <v>868744030898989</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="J58" s="32" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" s="23" customFormat="1" ht="14.25">
-      <c r="A59" s="21">
+        <v>122</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A58" s="21">
         <v>180601010000010</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B58" s="21">
         <v>868744030870145</v>
       </c>
-      <c r="C59" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="F59" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-    </row>
-    <row r="60" spans="1:10" ht="14.25">
+      <c r="C58" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.25">
+      <c r="A59" s="1">
+        <v>180601010000011</v>
+      </c>
+      <c r="B59" s="1">
+        <v>863703033732764</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25">
       <c r="A60" s="1">
-        <v>180601010000011</v>
+        <v>180601010000012</v>
       </c>
       <c r="B60" s="1">
-        <v>863703033732764</v>
+        <v>868744030897767</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.25">
-      <c r="A61" s="1">
-        <v>180601010000012</v>
-      </c>
-      <c r="B61" s="1">
-        <v>868744030897767</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H61" s="26" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" s="23" customFormat="1" ht="14.25">
+        <v>129</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A61" s="21">
+        <v>180601010000013</v>
+      </c>
+      <c r="B61" s="21">
+        <v>868744030870889</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A62" s="21">
-        <v>180601010000013</v>
+        <v>180601010000014</v>
       </c>
       <c r="B62" s="21">
-        <v>868744030870889</v>
+        <v>868744030898922</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="F62" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="G62" s="22"/>
-      <c r="H62" s="37" t="s">
-        <v>312</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G62" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" s="34"/>
       <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-    </row>
-    <row r="63" spans="1:10" ht="14.25">
+    </row>
+    <row r="63" spans="1:9" ht="14.25">
       <c r="A63" s="1">
         <v>180601010000023</v>
       </c>
@@ -3516,25 +3188,22 @@
         <v>5</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="I63" s="32" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" s="23" customFormat="1" ht="14.25">
+        <v>127</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="23" customFormat="1" ht="14.25">
       <c r="A64" s="21">
         <v>180601010000067</v>
       </c>
@@ -3545,24 +3214,21 @@
         <v>6</v>
       </c>
       <c r="D64" s="21" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="F64" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="36" t="s">
-        <v>315</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="H64" s="34"/>
       <c r="I64" s="34"/>
-      <c r="J64" s="34"/>
-    </row>
-    <row r="65" spans="1:8" ht="14.25">
+    </row>
+    <row r="65" spans="1:9" ht="14.25">
       <c r="A65" s="11" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="B65" s="1">
         <v>863703033732533</v>
@@ -3574,17 +3240,14 @@
         <v>8</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G65" s="2"/>
-      <c r="H65" s="26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="14.25">
+        <v>140</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.25">
       <c r="A66" s="1">
         <v>863703036115405</v>
       </c>
@@ -3595,20 +3258,17 @@
         <v>4</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G66" s="2"/>
-      <c r="H66" s="26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="14.25">
+        <v>100</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.25">
       <c r="A67" s="1">
         <v>863703036115587</v>
       </c>
@@ -3619,107 +3279,132 @@
         <v>4</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="2"/>
-      <c r="H67" s="26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="14.25">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-    </row>
-    <row r="70" spans="1:8" ht="14.25">
+        <v>100</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A68" s="21">
+        <v>868744030870210</v>
+      </c>
+      <c r="B68" s="21">
+        <v>868744030870210</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.25">
+      <c r="A69" s="21">
+        <v>868744030870211</v>
+      </c>
+      <c r="B69" s="21">
+        <v>868744030870211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.25">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="1:8" ht="14.25">
+    <row r="71" spans="1:9" ht="14.25">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="1:8" ht="14.25">
+    <row r="72" spans="1:9" ht="14.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:8" ht="14.25">
+    <row r="73" spans="1:9" ht="14.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:8" ht="14.25">
+    <row r="74" spans="1:9" ht="14.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:8" ht="14.25">
+    <row r="75" spans="1:9" ht="14.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:8" ht="14.25">
+    <row r="76" spans="1:9" ht="14.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H3" location="客户表单!A3" display="朱权"/>
-    <hyperlink ref="H4" location="客户表单!A4" display="北京宝兴达"/>
-    <hyperlink ref="H6" location="客户表单!A5" display="张跃青"/>
-    <hyperlink ref="H8" location="门锁表单!A6" display="易赛贝尔"/>
-    <hyperlink ref="H9" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="H10" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H11" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H14" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H15" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H31" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H32" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H35" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H38" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H39" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H40" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H42" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H43" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H60" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H61" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="H12" location="客户表单!A10" display="北京安德森"/>
-    <hyperlink ref="H13" location="客户表单!A7" display="易长根（出借）"/>
-    <hyperlink ref="H16" location="客户表单!A7" display="易长根"/>
-    <hyperlink ref="H17" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
-    <hyperlink ref="H18" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="H19" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="H21" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="H63" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="H65" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="H57" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
-    <hyperlink ref="H58" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
-    <hyperlink ref="H20" location="客户表单!A9" display="深圳市电易科技有限公司"/>
-    <hyperlink ref="H22" location="客户表单!A10" display="北京安德森"/>
-    <hyperlink ref="H23" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
-    <hyperlink ref="H24" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="H25" location="客户表单!A7" display="易长根"/>
-    <hyperlink ref="H26" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
-    <hyperlink ref="H27" location="客户表单!A13" display="刘万颖"/>
-    <hyperlink ref="H28" location="客户表单!A14" display="何明灯"/>
-    <hyperlink ref="H29" location="客户表单!A15" display="深圳和而泰智能控制股份有限公司"/>
-    <hyperlink ref="H30" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="H33" location="客户表单!A7" display="易长根"/>
-    <hyperlink ref="H34" location="客户表单!A7" display="易长根"/>
-    <hyperlink ref="H44" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="H45" location="客户表单!A17" display="华大科技"/>
-    <hyperlink ref="H49" location="客户表单!A19" display="殷润民"/>
-    <hyperlink ref="H52" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="H55" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="H66" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="H67" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="H41" location="客户表单!A16" display="家盾卫士"/>
-    <hyperlink ref="H53" location="客户表单!A23" display="何继红"/>
-    <hyperlink ref="H56" location="客户表单!A22" display="詹从军"/>
+    <hyperlink ref="G2" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G3" location="客户表单!A3" display="朱权"/>
+    <hyperlink ref="G4" location="客户表单!A4" display="北京宝兴达"/>
+    <hyperlink ref="G6" location="客户表单!A5" display="张跃青"/>
+    <hyperlink ref="G8" location="门锁表单!A6" display="易赛贝尔"/>
+    <hyperlink ref="G9" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G10" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G11" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G14" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G15" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G31" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G32" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G35" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G38" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G39" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G40" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G42" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G43" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G59" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G60" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G12" location="客户表单!A10" display="北京安德森"/>
+    <hyperlink ref="G13" location="客户表单!A7" display="易长根（出借）"/>
+    <hyperlink ref="G16" location="客户表单!A7" display="易长根"/>
+    <hyperlink ref="G17" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G18" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G19" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G21" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G63" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G65" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G56" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G57" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G20" location="客户表单!A9" display="深圳市电易科技有限公司"/>
+    <hyperlink ref="G22" location="客户表单!A10" display="北京安德森"/>
+    <hyperlink ref="G23" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
+    <hyperlink ref="G24" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G25" location="客户表单!A7" display="易长根"/>
+    <hyperlink ref="G26" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
+    <hyperlink ref="G27" location="客户表单!A13" display="刘万颖"/>
+    <hyperlink ref="G28" location="客户表单!A14" display="何明灯"/>
+    <hyperlink ref="G29" location="客户表单!A15" display="深圳和而泰智能控制股份有限公司"/>
+    <hyperlink ref="G30" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G33" location="客户表单!A7" display="易长根"/>
+    <hyperlink ref="G34" location="客户表单!A7" display="易长根"/>
+    <hyperlink ref="G44" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G45" location="客户表单!A17" display="华大科技"/>
+    <hyperlink ref="G48" location="客户表单!A19" display="殷润民"/>
+    <hyperlink ref="G51" location="客户表单!A20" display="能投"/>
+    <hyperlink ref="G54" location="客户表单!A20" display="能投"/>
+    <hyperlink ref="G66" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G67" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G41" location="客户表单!A16" display="家盾卫士"/>
+    <hyperlink ref="G52" location="客户表单!A23" display="何继红"/>
+    <hyperlink ref="G55" location="客户表单!A22" display="詹从军"/>
+    <hyperlink ref="G53" location="客户表单!A24" display="燕南科技"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3731,7 +3416,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3757,25 +3442,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>203</v>
+        <v>141</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>279</v>
+        <v>216</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>278</v>
+        <v>215</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3791,18 +3476,18 @@
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="13"/>
       <c r="I2" s="8" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="J2" s="14">
         <v>43292.665138888886</v>
@@ -3821,18 +3506,18 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="13"/>
       <c r="I3" s="15" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="J3" s="14">
         <v>43293.586481481485</v>
@@ -3851,18 +3536,18 @@
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="J4" s="14">
         <v>43278.424328703702</v>
@@ -3881,18 +3566,18 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
       <c r="I5" s="15" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="J5" s="14">
         <v>43280.396319444444</v>
@@ -3911,18 +3596,18 @@
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="8" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="J6" s="14">
         <v>43263.834722222222</v>
@@ -3941,18 +3626,18 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="13"/>
       <c r="I7" s="2" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="J7" s="14">
         <v>43278.419710648152</v>
@@ -3971,18 +3656,18 @@
         <v>3</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="13"/>
       <c r="I8" s="2" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="J8" s="14">
         <v>43278.421099537038</v>
@@ -4001,18 +3686,18 @@
         <v>3</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="13"/>
       <c r="I9" s="2" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="J9" s="14">
         <v>43278.422592592593</v>
@@ -4031,18 +3716,18 @@
         <v>4</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="13"/>
       <c r="I10" s="26" t="s">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -4062,7 +3747,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4076,19 +3761,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>318</v>
+        <v>251</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>346</v>
+        <v>279</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -4096,7 +3781,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -4104,10 +3789,10 @@
     </row>
     <row r="3" spans="1:5" ht="14.25">
       <c r="A3" s="28" t="s">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -4115,53 +3800,53 @@
     </row>
     <row r="4" spans="1:5" ht="14.25">
       <c r="A4" s="28" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1">
       <c r="A5" s="28" t="s">
-        <v>270</v>
+        <v>207</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" ht="14.25">
       <c r="A6" s="28" t="s">
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29" t="s">
-        <v>225</v>
+        <v>163</v>
       </c>
       <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="31" t="s">
-        <v>296</v>
+        <v>230</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
@@ -4169,80 +3854,80 @@
     </row>
     <row r="8" spans="1:5" ht="14.25">
       <c r="A8" s="28" t="s">
-        <v>251</v>
+        <v>188</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>253</v>
+        <v>190</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" ht="14.25">
       <c r="A9" s="28" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>247</v>
+        <v>184</v>
       </c>
       <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" ht="14.25">
       <c r="A10" s="28" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>345</v>
+        <v>278</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>228</v>
+        <v>166</v>
       </c>
       <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="14.25">
       <c r="A11" s="28" t="s">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>229</v>
+        <v>167</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" ht="14.25">
       <c r="A12" s="28" t="s">
-        <v>255</v>
+        <v>192</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>348</v>
+        <v>281</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>256</v>
+        <v>193</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" ht="14.25">
       <c r="A13" s="28" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
@@ -4251,37 +3936,37 @@
     </row>
     <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="28" t="s">
-        <v>272</v>
+        <v>209</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5" ht="14.25">
       <c r="A15" s="28" t="s">
-        <v>221</v>
+        <v>159</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>242</v>
+        <v>179</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="28" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="29">
@@ -4292,46 +3977,46 @@
     </row>
     <row r="17" spans="1:5" ht="14.25">
       <c r="A17" s="28" t="s">
-        <v>262</v>
+        <v>199</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="29" t="s">
-        <v>263</v>
+        <v>200</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="31" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="29" t="s">
-        <v>264</v>
+        <v>201</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" ht="14.25">
       <c r="A19" s="28" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="29" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="14.25">
       <c r="A20" s="28" t="s">
-        <v>205</v>
+        <v>143</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
@@ -4341,47 +4026,53 @@
         <v>5</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>244</v>
+        <v>181</v>
       </c>
       <c r="E21" s="29"/>
     </row>
     <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="28" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>353</v>
+        <v>286</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>355</v>
+        <v>288</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" ht="14.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
+      <c r="A24" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>299</v>
+      </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="29" t="s">
+        <v>301</v>
+      </c>
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" ht="14.25">

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="298">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -742,21 +742,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>89860317452041047913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000107c</t>
-  </si>
-  <si>
-    <t>新硬件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>‘89860317492039343676</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 82eaca102787</t>
   </si>
   <si>
@@ -783,10 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>000000001082</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>易长根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,10 +825,6 @@
   </si>
   <si>
     <t>殷润民</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳友兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1086,6 +1063,14 @@
   </si>
   <si>
     <t>北京市海淀区宝盛路 宝盛广场B座8层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月23日酷酷科技的郑总借走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳友兵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1189,7 +1174,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1229,6 +1214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1272,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1428,6 +1419,33 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1724,13 +1742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1766,7 +1784,7 @@
         <v>149</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>160</v>
@@ -1814,7 +1832,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="26" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
@@ -1835,10 +1853,10 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="26" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -1859,10 +1877,10 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="35" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -1876,17 +1894,17 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="26" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>208</v>
@@ -1910,7 +1928,7 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="35" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
@@ -1931,7 +1949,7 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="26" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
@@ -1952,7 +1970,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -1973,7 +1991,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -1994,7 +2012,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2015,7 +2033,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
@@ -2036,7 +2054,7 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="26" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
@@ -2057,7 +2075,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25">
@@ -2078,7 +2096,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25">
@@ -2099,7 +2117,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>187</v>
@@ -2125,10 +2143,10 @@
         <v>189</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25">
@@ -2149,7 +2167,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25">
@@ -2170,7 +2188,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25">
@@ -2191,10 +2209,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="26" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>203</v>
@@ -2218,7 +2236,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="26" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25">
@@ -2239,10 +2257,10 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="26" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25">
@@ -2263,13 +2281,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="26" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25">
@@ -2290,10 +2308,10 @@
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25">
@@ -2314,7 +2332,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>187</v>
@@ -2338,13 +2356,13 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="26" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25">
@@ -2365,7 +2383,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="26" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25">
@@ -2386,10 +2404,10 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="26" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25">
@@ -2410,10 +2428,10 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="26" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="I29" s="32" t="s">
         <v>202</v>
@@ -2437,10 +2455,10 @@
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25">
@@ -2461,7 +2479,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
@@ -2482,7 +2500,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25">
@@ -2503,7 +2521,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I33" s="32" t="s">
         <v>187</v>
@@ -2527,7 +2545,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="26" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>187</v>
@@ -2551,7 +2569,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25">
@@ -2562,7 +2580,7 @@
         <v>868744030870590</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>48</v>
@@ -2612,7 +2630,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25">
@@ -2633,7 +2651,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25">
@@ -2654,7 +2672,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25">
@@ -2675,7 +2693,7 @@
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="26" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H41" s="32">
         <v>13928787891</v>
@@ -2699,7 +2717,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
@@ -2720,7 +2738,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="26" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25">
@@ -2734,17 +2752,17 @@
         <v>4</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25">
@@ -2765,10 +2783,10 @@
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="26" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="14.25">
@@ -2782,14 +2800,14 @@
         <v>3</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="36" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
@@ -2805,14 +2823,14 @@
         <v>3</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>125</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="36" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
@@ -2835,10 +2853,10 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="44" customFormat="1" ht="14.25">
@@ -2852,501 +2870,592 @@
       <c r="H49" s="43"/>
       <c r="I49" s="43"/>
     </row>
-    <row r="50" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A50" s="21">
-        <v>180601010000001</v>
-      </c>
-      <c r="B50" s="21">
-        <v>863703030588730</v>
-      </c>
-      <c r="C50" s="22" t="s">
+    <row r="50" spans="1:9" ht="14.25">
+      <c r="A50" s="1">
+        <v>180601010000002</v>
+      </c>
+      <c r="B50" s="1">
+        <v>863703030143866</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="36" t="s">
-        <v>245</v>
-      </c>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-    </row>
-    <row r="51" spans="1:9" ht="14.25">
+      <c r="D50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="47" customFormat="1" ht="14.25">
       <c r="A51" s="1">
-        <v>180601010000002</v>
+        <v>180601010000003</v>
       </c>
       <c r="B51" s="1">
-        <v>863703030143866</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>142</v>
+        <v>868744030885796</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>267</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="I51" s="46"/>
     </row>
     <row r="52" spans="1:9" s="47" customFormat="1" ht="14.25">
       <c r="A52" s="1">
-        <v>180601010000003</v>
+        <v>180601010000004</v>
       </c>
       <c r="B52" s="1">
-        <v>868744030885796</v>
+        <v>863703032301108</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="H52" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="I52" s="46"/>
-    </row>
-    <row r="53" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="H52" s="46"/>
+      <c r="I52" s="46" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25">
       <c r="A53" s="1">
-        <v>180601010000004</v>
+        <v>180601010000005</v>
       </c>
       <c r="B53" s="1">
-        <v>863703032301108</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>145</v>
+        <v>868744030899110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.25">
+        <v>240</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="47" customFormat="1" ht="14.25">
       <c r="A54" s="1">
-        <v>180601010000005</v>
+        <v>180601010000006</v>
       </c>
       <c r="B54" s="1">
-        <v>868744030899110</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>868744030897866</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>146</v>
+      <c r="D54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="47" customFormat="1" ht="14.25">
+        <v>287</v>
+      </c>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.25">
       <c r="A55" s="1">
-        <v>180601010000006</v>
+        <v>180601010000007</v>
       </c>
       <c r="B55" s="1">
-        <v>868744030897866</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>868744030870376</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>225</v>
+      <c r="D55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="I55" s="46"/>
+        <v>244</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="1">
-        <v>180601010000007</v>
+        <v>180601010000008</v>
       </c>
       <c r="B56" s="1">
-        <v>868744030870376</v>
+        <v>868744030898989</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="14.25">
-      <c r="A57" s="1">
-        <v>180601010000008</v>
-      </c>
-      <c r="B57" s="1">
-        <v>868744030898989</v>
-      </c>
-      <c r="C57" s="2" t="s">
+    <row r="57" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A57" s="21">
+        <v>180601010000010</v>
+      </c>
+      <c r="B57" s="21">
+        <v>863703030588730</v>
+      </c>
+      <c r="C57" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A58" s="21">
-        <v>180601010000010</v>
-      </c>
-      <c r="B58" s="21">
-        <v>868744030870145</v>
-      </c>
-      <c r="C58" s="22" t="s">
+      <c r="D57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="G57" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.25">
+      <c r="A58" s="1">
+        <v>180601010000011</v>
+      </c>
+      <c r="B58" s="1">
+        <v>863703033732764</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="1">
-        <v>180601010000011</v>
+        <v>180601010000012</v>
       </c>
       <c r="B59" s="1">
-        <v>863703033732764</v>
+        <v>868744030897767</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.25">
-      <c r="A60" s="1">
-        <v>180601010000012</v>
-      </c>
-      <c r="B60" s="1">
-        <v>868744030897767</v>
-      </c>
-      <c r="C60" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A60" s="21">
+        <v>180601010000014</v>
+      </c>
+      <c r="B60" s="21">
+        <v>868744030898922</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G60" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+    </row>
+    <row r="61" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="A61" s="1">
+        <v>180601010000015</v>
+      </c>
+      <c r="B61" s="1">
+        <v>863703033726113</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A61" s="21">
-        <v>180601010000013</v>
-      </c>
-      <c r="B61" s="21">
-        <v>868744030870889</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-    </row>
-    <row r="62" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A62" s="21">
-        <v>180601010000014</v>
-      </c>
-      <c r="B62" s="21">
-        <v>868744030898922</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F62" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="G62" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-    </row>
-    <row r="63" spans="1:9" ht="14.25">
+      <c r="D61" s="55"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+    </row>
+    <row r="62" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="A62" s="1">
+        <v>180601010000016</v>
+      </c>
+      <c r="B62" s="1">
+        <v>863703032882750</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="55"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="1:9" s="47" customFormat="1" ht="14.25">
       <c r="A63" s="1">
-        <v>180601010000023</v>
+        <v>180601010000017</v>
       </c>
       <c r="B63" s="1">
-        <v>868744030898047</v>
+        <v>868744030870970</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D63" s="55"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="8"/>
       <c r="G63" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="H63" s="32" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A64" s="21">
-        <v>180601010000067</v>
-      </c>
-      <c r="B64" s="21">
-        <v>863703032882602</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="36" t="s">
-        <v>248</v>
-      </c>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-    </row>
-    <row r="65" spans="1:9" ht="14.25">
-      <c r="A65" s="11" t="s">
-        <v>153</v>
+        <v>264</v>
+      </c>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="A64" s="1">
+        <v>180601010000019</v>
+      </c>
+      <c r="B64" s="1">
+        <v>863703033732442</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="55"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+    </row>
+    <row r="65" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="A65" s="1">
+        <v>180601010000020</v>
       </c>
       <c r="B65" s="1">
-        <v>863703033732533</v>
+        <v>863703033725131</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D65" s="55"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="26" t="s">
-        <v>269</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
     </row>
     <row r="66" spans="1:9" ht="14.25">
       <c r="A66" s="1">
+        <v>180601010000023</v>
+      </c>
+      <c r="B66" s="1">
+        <v>868744030898047</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A67" s="21">
+        <v>180601010000067</v>
+      </c>
+      <c r="B67" s="21">
+        <v>863703032882602</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="G67" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H67" s="34"/>
+      <c r="I67" s="34"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.25">
+      <c r="A68" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="1">
+        <v>863703033732533</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.25">
+      <c r="A69" s="1">
         <v>863703036115405</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B69" s="1">
         <v>863703036115405</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="14.25">
-      <c r="A67" s="1">
+      <c r="F69" s="2"/>
+      <c r="G69" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.25">
+      <c r="A70" s="1">
         <v>863703036115587</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B70" s="1">
         <v>863703036115587</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A68" s="21">
+      <c r="F70" s="2"/>
+      <c r="G70" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="54" customFormat="1" ht="14.25">
+      <c r="A71" s="50">
         <v>868744030870210</v>
       </c>
-      <c r="B68" s="21">
+      <c r="B71" s="50">
         <v>868744030870210</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C71" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D71" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E71" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="H68" s="22"/>
-      <c r="I68" s="34"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25">
-      <c r="A69" s="21">
+      <c r="F71" s="56"/>
+      <c r="G71" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" s="56"/>
+      <c r="I71" s="53"/>
+    </row>
+    <row r="72" spans="1:9" s="54" customFormat="1" ht="14.25">
+      <c r="A72" s="50">
         <v>868744030870211</v>
       </c>
-      <c r="B69" s="21">
+      <c r="B72" s="50">
         <v>868744030870211</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-    </row>
-    <row r="71" spans="1:9" ht="14.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-    </row>
-    <row r="72" spans="1:9" ht="14.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-    </row>
-    <row r="73" spans="1:9" ht="14.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" ht="14.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-    </row>
-    <row r="75" spans="1:9" ht="14.25">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="53"/>
+      <c r="I72" s="53"/>
+    </row>
+    <row r="73" spans="1:9" s="54" customFormat="1" ht="14.25">
+      <c r="A73" s="49">
+        <v>180801010000001</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="H73" s="53"/>
+      <c r="I73" s="53"/>
+    </row>
+    <row r="74" spans="1:9" s="54" customFormat="1" ht="14.25">
+      <c r="A74" s="49">
+        <v>180801010000006</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="51"/>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51"/>
+      <c r="G74" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="H74" s="53"/>
+      <c r="I74" s="53"/>
+    </row>
+    <row r="75" spans="1:9" s="54" customFormat="1" ht="14.25">
+      <c r="A75" s="49">
+        <v>180801010000009</v>
+      </c>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="H75" s="53"/>
+      <c r="I75" s="53"/>
     </row>
     <row r="76" spans="1:9" ht="14.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" ht="14.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" ht="14.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" ht="14.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3369,8 +3478,8 @@
     <hyperlink ref="G40" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G42" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G43" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G58" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G59" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G60" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G12" location="客户表单!A10" display="北京安德森"/>
     <hyperlink ref="G13" location="客户表单!A7" display="易长根（出借）"/>
     <hyperlink ref="G16" location="客户表单!A7" display="易长根"/>
@@ -3378,10 +3487,10 @@
     <hyperlink ref="G18" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G19" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G21" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G63" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G65" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G66" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G68" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G55" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
     <hyperlink ref="G56" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
-    <hyperlink ref="G57" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
     <hyperlink ref="G20" location="客户表单!A9" display="深圳市电易科技有限公司"/>
     <hyperlink ref="G22" location="客户表单!A10" display="北京安德森"/>
     <hyperlink ref="G23" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
@@ -3397,14 +3506,16 @@
     <hyperlink ref="G44" location="客户表单!A12" display="思科尔特"/>
     <hyperlink ref="G45" location="客户表单!A17" display="华大科技"/>
     <hyperlink ref="G48" location="客户表单!A19" display="殷润民"/>
-    <hyperlink ref="G51" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="G54" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="G66" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="G67" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G50" location="客户表单!A20" display="能投"/>
+    <hyperlink ref="G53" location="客户表单!A20" display="能投"/>
+    <hyperlink ref="G69" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G70" location="客户表单!A12" display="思科尔特"/>
     <hyperlink ref="G41" location="客户表单!A16" display="家盾卫士"/>
-    <hyperlink ref="G52" location="客户表单!A23" display="何继红"/>
-    <hyperlink ref="G55" location="客户表单!A22" display="詹从军"/>
-    <hyperlink ref="G53" location="客户表单!A24" display="燕南科技"/>
+    <hyperlink ref="G51" location="客户表单!A23" display="何继红"/>
+    <hyperlink ref="G54" location="客户表单!A22" display="詹从军"/>
+    <hyperlink ref="G52" location="客户表单!A24" display="燕南科技"/>
+    <hyperlink ref="G63:G65" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G62" location="客户表单!A2" display="再丰达"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3727,7 +3838,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="13"/>
       <c r="I10" s="26" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -3747,7 +3858,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3761,19 +3872,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -3843,7 +3954,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25">
       <c r="A7" s="31" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>211</v>
@@ -3887,7 +3998,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>165</v>
@@ -3917,7 +4028,7 @@
         <v>192</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>193</v>
@@ -3939,7 +4050,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>178</v>
@@ -3988,7 +4099,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.25">
       <c r="A18" s="31" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="29" t="s">
@@ -4026,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>180</v>
@@ -4038,40 +4149,40 @@
     </row>
     <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="28" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="E24" s="29"/>
     </row>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -820,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谢浩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>殷润民</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1071,6 +1067,10 @@
   </si>
   <si>
     <t>岳友兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁国辉出库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1272,7 +1272,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1445,6 +1445,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1748,7 +1751,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1784,7 +1787,7 @@
         <v>149</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>160</v>
@@ -1856,7 +1859,7 @@
         <v>228</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
@@ -1880,7 +1883,7 @@
         <v>229</v>
       </c>
       <c r="H5" s="32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
@@ -1904,7 +1907,7 @@
         <v>230</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I6" s="33" t="s">
         <v>208</v>
@@ -1970,7 +1973,7 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
@@ -1991,7 +1994,7 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
@@ -2012,7 +2015,7 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
@@ -2075,7 +2078,7 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25">
@@ -2096,7 +2099,7 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25">
@@ -2117,7 +2120,7 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I16" s="32" t="s">
         <v>187</v>
@@ -2143,10 +2146,10 @@
         <v>189</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25">
@@ -2167,7 +2170,7 @@
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25">
@@ -2188,7 +2191,7 @@
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25">
@@ -2209,10 +2212,10 @@
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I20" s="32" t="s">
         <v>203</v>
@@ -2236,7 +2239,7 @@
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25">
@@ -2260,7 +2263,7 @@
         <v>233</v>
       </c>
       <c r="H22" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25">
@@ -2281,13 +2284,13 @@
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H23" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25">
@@ -2311,7 +2314,7 @@
         <v>236</v>
       </c>
       <c r="H24" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25">
@@ -2332,7 +2335,7 @@
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>187</v>
@@ -2356,13 +2359,13 @@
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25">
@@ -2383,7 +2386,7 @@
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25">
@@ -2404,10 +2407,10 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25">
@@ -2428,10 +2431,10 @@
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I29" s="32" t="s">
         <v>202</v>
@@ -2458,7 +2461,7 @@
         <v>236</v>
       </c>
       <c r="H30" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25">
@@ -2479,7 +2482,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
@@ -2500,7 +2503,7 @@
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25">
@@ -2521,7 +2524,7 @@
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I33" s="32" t="s">
         <v>187</v>
@@ -2545,7 +2548,7 @@
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I34" s="32" t="s">
         <v>187</v>
@@ -2569,7 +2572,7 @@
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25">
@@ -2580,7 +2583,7 @@
         <v>868744030870590</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>48</v>
@@ -2630,7 +2633,7 @@
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25">
@@ -2651,7 +2654,7 @@
       </c>
       <c r="F39" s="10"/>
       <c r="G39" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25">
@@ -2672,7 +2675,7 @@
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25">
@@ -2717,7 +2720,7 @@
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
@@ -2738,7 +2741,7 @@
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25">
@@ -2762,7 +2765,7 @@
         <v>236</v>
       </c>
       <c r="H44" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25">
@@ -2786,7 +2789,7 @@
         <v>237</v>
       </c>
       <c r="H45" s="32" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="23" customFormat="1" ht="14.25">
@@ -2800,40 +2803,40 @@
         <v>3</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>99</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A47" s="24">
+    <row r="47" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="A47" s="19">
         <v>180401010000064</v>
       </c>
-      <c r="B47" s="21">
+      <c r="B47" s="1">
         <v>868744030885911</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="36" t="s">
-        <v>238</v>
-      </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="48" spans="1:9" ht="14.25">
       <c r="A48" s="19">
@@ -2853,10 +2856,10 @@
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H48" s="32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="44" customFormat="1" ht="14.25">
@@ -2890,10 +2893,10 @@
         <v>142</v>
       </c>
       <c r="G50" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="47" customFormat="1" ht="14.25">
@@ -2916,10 +2919,10 @@
         <v>144</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I51" s="46"/>
     </row>
@@ -2943,11 +2946,11 @@
         <v>145</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H52" s="46"/>
       <c r="I52" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="14.25">
@@ -2970,7 +2973,7 @@
         <v>146</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H53" s="32" t="s">
         <v>194</v>
@@ -2996,10 +2999,10 @@
         <v>221</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H54" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I54" s="46"/>
     </row>
@@ -3023,7 +3026,7 @@
         <v>147</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I55" s="32" t="s">
         <v>204</v>
@@ -3049,7 +3052,7 @@
         <v>148</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I56" s="32" t="s">
         <v>204</v>
@@ -3075,7 +3078,7 @@
         <v>220</v>
       </c>
       <c r="G57" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H57" s="34"/>
       <c r="I57" s="34"/>
@@ -3100,7 +3103,7 @@
         <v>150</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="14.25">
@@ -3123,7 +3126,7 @@
         <v>151</v>
       </c>
       <c r="G59" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="23" customFormat="1" ht="14.25">
@@ -3143,10 +3146,10 @@
         <v>126</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G60" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
@@ -3165,7 +3168,7 @@
       <c r="E61" s="1"/>
       <c r="F61" s="8"/>
       <c r="G61" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H61" s="46"/>
       <c r="I61" s="46"/>
@@ -3184,7 +3187,7 @@
       <c r="E62" s="1"/>
       <c r="F62" s="8"/>
       <c r="G62" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H62" s="46"/>
       <c r="I62" s="46"/>
@@ -3203,7 +3206,7 @@
       <c r="E63" s="1"/>
       <c r="F63" s="8"/>
       <c r="G63" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H63" s="46"/>
       <c r="I63" s="46"/>
@@ -3222,7 +3225,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="8"/>
       <c r="G64" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H64" s="46"/>
       <c r="I64" s="46"/>
@@ -3241,7 +3244,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="8"/>
       <c r="G65" s="26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H65" s="46"/>
       <c r="I65" s="46"/>
@@ -3266,10 +3269,10 @@
         <v>152</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H66" s="32" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="23" customFormat="1" ht="14.25">
@@ -3290,7 +3293,7 @@
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H67" s="34"/>
       <c r="I67" s="34"/>
@@ -3313,7 +3316,7 @@
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="26" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="14.25">
@@ -3376,7 +3379,7 @@
       </c>
       <c r="F71" s="56"/>
       <c r="G71" s="57" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H71" s="56"/>
       <c r="I71" s="53"/>
@@ -3406,7 +3409,7 @@
       <c r="E73" s="51"/>
       <c r="F73" s="51"/>
       <c r="G73" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H73" s="53"/>
       <c r="I73" s="53"/>
@@ -3421,7 +3424,7 @@
       <c r="E74" s="51"/>
       <c r="F74" s="51"/>
       <c r="G74" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H74" s="53"/>
       <c r="I74" s="53"/>
@@ -3436,7 +3439,7 @@
       <c r="E75" s="51"/>
       <c r="F75" s="51"/>
       <c r="G75" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H75" s="53"/>
       <c r="I75" s="53"/>
@@ -3872,19 +3875,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
       <c r="A1" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>273</v>
-      </c>
-      <c r="C1" s="27" t="s">
+      <c r="D1" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="E1" s="27" t="s">
         <v>247</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
@@ -3998,7 +4001,7 @@
         <v>156</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>165</v>
@@ -4028,7 +4031,7 @@
         <v>192</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>193</v>
@@ -4050,7 +4053,7 @@
         <v>209</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>178</v>
@@ -4137,7 +4140,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="29" t="s">
         <v>180</v>
@@ -4149,40 +4152,40 @@
     </row>
     <row r="22" spans="1:5" ht="14.25">
       <c r="A22" s="28" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" ht="16.5" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B23" s="29"/>
       <c r="C23" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>282</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>283</v>
       </c>
       <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5" ht="14.25">
       <c r="A24" s="28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E24" s="29"/>
     </row>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="306">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1073,14 +1073,47 @@
     <t>袁国辉出库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>新外观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c998071f92bc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000001083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89860317452041047921</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linghu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领虎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不带刷卡功能，后台设置客户logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="000000"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1272,7 +1305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1393,9 +1426,6 @@
     <xf numFmtId="176" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1449,6 +1479,33 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1745,19 +1802,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I61" sqref="I61"/>
+      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="64" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
@@ -1771,7 +1828,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1800,7 +1857,7 @@
       <c r="A2" s="19">
         <v>180401010000001</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="59">
         <v>868744030899037</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1821,7 +1878,7 @@
       <c r="A3" s="19">
         <v>180401010000002</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="59">
         <v>868744030900421</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -1842,7 +1899,7 @@
       <c r="A4" s="19">
         <v>180401010000004</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="59">
         <v>868744030900108</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1866,7 +1923,7 @@
       <c r="A5" s="19">
         <v>180401010000005</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="59">
         <v>868744030898575</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1890,7 +1947,7 @@
       <c r="A6" s="19">
         <v>180401010000006</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="59">
         <v>868744030871275</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1917,7 +1974,7 @@
       <c r="A7" s="19">
         <v>180401010000007</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="59">
         <v>868744030897734</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1938,7 +1995,7 @@
       <c r="A8" s="19">
         <v>180401010000008</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="59">
         <v>868744030897726</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1959,7 +2016,7 @@
       <c r="A9" s="19">
         <v>180401010000009</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="59">
         <v>868744030885952</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1980,7 +2037,7 @@
       <c r="A10" s="19">
         <v>180401010000010</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="59">
         <v>868744030898963</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2001,7 +2058,7 @@
       <c r="A11" s="19">
         <v>180401010000011</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="59">
         <v>868744030900397</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2022,7 +2079,7 @@
       <c r="A12" s="19">
         <v>180401010000012</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="59">
         <v>868744030870269</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2043,7 +2100,7 @@
       <c r="A13" s="19">
         <v>180401010000013</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="59">
         <v>868744030870053</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2064,7 +2121,7 @@
       <c r="A14" s="19">
         <v>180401010000015</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="59">
         <v>868744030870871</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2085,7 +2142,7 @@
       <c r="A15" s="19">
         <v>180401010000016</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="59">
         <v>868744030900322</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -2106,7 +2163,7 @@
       <c r="A16" s="19">
         <v>180401010000017</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="59">
         <v>868744030898971</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2130,7 +2187,7 @@
       <c r="A17" s="19">
         <v>180401010000020</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="59">
         <v>863703032882487</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2156,7 +2213,7 @@
       <c r="A18" s="19">
         <v>180401010000022</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="59">
         <v>863703033732301</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2177,7 +2234,7 @@
       <c r="A19" s="19">
         <v>180401010000024</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="59">
         <v>868744030870707</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -2198,7 +2255,7 @@
       <c r="A20" s="19">
         <v>180401010000025</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="59">
         <v>868744030900207</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2225,7 +2282,7 @@
       <c r="A21" s="19">
         <v>180401010000026</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="59">
         <v>868744030870921</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -2246,7 +2303,7 @@
       <c r="A22" s="19">
         <v>180401010000027</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="59">
         <v>868744030897932</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -2270,7 +2327,7 @@
       <c r="A23" s="19">
         <v>180401010000028</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="59">
         <v>868744030886224</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -2297,7 +2354,7 @@
       <c r="A24" s="19">
         <v>180401010000029</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="59">
         <v>868744030870608</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -2321,7 +2378,7 @@
       <c r="A25" s="19">
         <v>180401010000030</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="59">
         <v>868744030897833</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -2345,7 +2402,7 @@
       <c r="A26" s="19">
         <v>180401010000031</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="59">
         <v>868744030899086</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -2364,7 +2421,7 @@
       <c r="H26" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="I26" s="48" t="s">
+      <c r="I26" s="47" t="s">
         <v>287</v>
       </c>
     </row>
@@ -2372,7 +2429,7 @@
       <c r="A27" s="19">
         <v>180401010000032</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="59">
         <v>868744030871846</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -2393,7 +2450,7 @@
       <c r="A28" s="19">
         <v>180401010000033</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="59">
         <v>868744030897742</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -2417,7 +2474,7 @@
       <c r="A29" s="19">
         <v>180401010000034</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="59">
         <v>868744030899508</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -2444,7 +2501,7 @@
       <c r="A30" s="19">
         <v>180401010000037</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="59">
         <v>868744030897775</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -2468,7 +2525,7 @@
       <c r="A31" s="19">
         <v>180401010000038</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="59">
         <v>868744030900348</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -2489,7 +2546,7 @@
       <c r="A32" s="19">
         <v>180401010000039</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="59">
         <v>868744030900678</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -2510,7 +2567,7 @@
       <c r="A33" s="19">
         <v>180401010000046</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="59">
         <v>868744030870905</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2534,7 +2591,7 @@
       <c r="A34" s="19">
         <v>180401010000047</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="59">
         <v>868744030870665</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -2558,7 +2615,7 @@
       <c r="A35" s="20">
         <v>180401010000048</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="60">
         <v>868744030897916</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2579,7 +2636,7 @@
       <c r="A36" s="19">
         <v>180401010000049</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="59">
         <v>868744030870590</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2600,7 +2657,7 @@
       <c r="A37" s="20">
         <v>180401010000050</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="60">
         <v>868744030874501</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -2619,7 +2676,7 @@
       <c r="A38" s="19">
         <v>180401010000051</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="59">
         <v>868744030900694</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2640,7 +2697,7 @@
       <c r="A39" s="20">
         <v>180401010000052</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="60">
         <v>868744030897627</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -2659,85 +2716,88 @@
     </row>
     <row r="40" spans="1:9" ht="14.25">
       <c r="A40" s="19">
-        <v>180401010000054</v>
-      </c>
-      <c r="B40" s="1">
-        <v>868744030897973</v>
+        <v>180401010000053</v>
+      </c>
+      <c r="B40" s="59">
+        <v>868744030885937</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="F40" s="2"/>
       <c r="G40" s="26" t="s">
-        <v>263</v>
+        <v>304</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="19">
-        <v>180401010000055</v>
-      </c>
-      <c r="B41" s="1">
-        <v>863703033890075</v>
+        <v>180401010000054</v>
+      </c>
+      <c r="B41" s="59">
+        <v>868744030897973</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H41" s="32">
-        <v>13928787891</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25">
       <c r="A42" s="19">
-        <v>180401010000056</v>
-      </c>
-      <c r="B42" s="1">
-        <v>863703032889490</v>
+        <v>180401010000055</v>
+      </c>
+      <c r="B42" s="59">
+        <v>863703033890075</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="26" t="s">
-        <v>263</v>
+        <v>235</v>
+      </c>
+      <c r="H42" s="32">
+        <v>13928787891</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="14.25">
       <c r="A43" s="19">
-        <v>180401010000058</v>
-      </c>
-      <c r="B43" s="1">
-        <v>868744030886695</v>
+        <v>180401010000056</v>
+      </c>
+      <c r="B43" s="59">
+        <v>863703032889490</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="26" t="s">
@@ -2746,310 +2806,305 @@
     </row>
     <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="19">
-        <v>180401010000060</v>
-      </c>
-      <c r="B44" s="1">
-        <v>868744030870186</v>
+        <v>180401010000058</v>
+      </c>
+      <c r="B44" s="59">
+        <v>868744030886695</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>222</v>
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" s="32" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="14.25">
       <c r="A45" s="19">
-        <v>180401010000062</v>
-      </c>
-      <c r="B45" s="1">
-        <v>868744030897759</v>
+        <v>180401010000060</v>
+      </c>
+      <c r="B45" s="59">
+        <v>868744030870186</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>222</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25">
+      <c r="A46" s="19">
+        <v>180401010000062</v>
+      </c>
+      <c r="B46" s="59">
+        <v>868744030897759</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="H45" s="32" t="s">
+      <c r="H46" s="32" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A46" s="24">
+    <row r="47" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A47" s="24">
         <v>180401010000063</v>
       </c>
-      <c r="B46" s="21">
+      <c r="B47" s="61">
         <v>868744030870087</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C47" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D47" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E47" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="36" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-    </row>
-    <row r="47" spans="1:9" s="47" customFormat="1" ht="14.25">
-      <c r="A47" s="19">
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+    </row>
+    <row r="48" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="A48" s="19">
         <v>180401010000064</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B48" s="59">
         <v>868744030885911</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D48" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="14.25">
-      <c r="A48" s="19">
+    <row r="49" spans="1:9" ht="14.25">
+      <c r="A49" s="19">
         <v>180401010004569</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B49" s="59">
         <v>868744030899094</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="26" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H49" s="32" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="44" customFormat="1" ht="14.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-    </row>
-    <row r="50" spans="1:9" ht="14.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:9" s="43" customFormat="1" ht="14.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+    </row>
+    <row r="51" spans="1:9" ht="14.25">
+      <c r="A51" s="1">
         <v>180601010000002</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B51" s="59">
         <v>863703030143866</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="G51" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="H50" s="32" t="s">
+      <c r="H51" s="32" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="47" customFormat="1" ht="14.25">
-      <c r="A51" s="1">
+    <row r="52" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="A52" s="1">
         <v>180601010000003</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B52" s="59">
         <v>868744030885796</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="I51" s="46"/>
-    </row>
-    <row r="52" spans="1:9" s="47" customFormat="1" ht="14.25">
-      <c r="A52" s="1">
-        <v>180601010000004</v>
-      </c>
-      <c r="B52" s="1">
-        <v>863703032301108</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="I52" s="45"/>
+    </row>
+    <row r="53" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="A53" s="1">
+        <v>180601010000004</v>
+      </c>
+      <c r="B53" s="59">
+        <v>863703032301108</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G53" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46" t="s">
+      <c r="H53" s="45"/>
+      <c r="I53" s="45" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25">
-      <c r="A53" s="1">
+    <row r="54" spans="1:9" ht="14.25">
+      <c r="A54" s="1">
         <v>180601010000005</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B54" s="59">
         <v>868744030899110</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G54" s="26" t="s">
         <v>239</v>
       </c>
-      <c r="H53" s="32" t="s">
+      <c r="H54" s="32" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="47" customFormat="1" ht="14.25">
-      <c r="A54" s="1">
+    <row r="55" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="A55" s="1">
         <v>180601010000006</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B55" s="59">
         <v>868744030897866</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G55" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H55" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="I54" s="46"/>
-    </row>
-    <row r="55" spans="1:9" ht="14.25">
-      <c r="A55" s="1">
-        <v>180601010000007</v>
-      </c>
-      <c r="B55" s="1">
-        <v>868744030870376</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>204</v>
-      </c>
+      <c r="I55" s="45"/>
     </row>
     <row r="56" spans="1:9" ht="14.25">
       <c r="A56" s="1">
-        <v>180601010000008</v>
-      </c>
-      <c r="B56" s="1">
-        <v>868744030898989</v>
+        <v>180601010000007</v>
+      </c>
+      <c r="B56" s="59">
+        <v>868744030870376</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>243</v>
@@ -3058,300 +3113,305 @@
         <v>204</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A57" s="21">
+    <row r="57" spans="1:9" ht="14.25">
+      <c r="A57" s="1">
+        <v>180601010000008</v>
+      </c>
+      <c r="B57" s="59">
+        <v>868744030898989</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A58" s="21">
         <v>180601010000010</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B58" s="61">
         <v>863703030588730</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D58" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E58" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="F58" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G57" s="36" t="s">
+      <c r="G58" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.25">
-      <c r="A58" s="1">
-        <v>180601010000011</v>
-      </c>
-      <c r="B58" s="1">
-        <v>863703033732764</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>263</v>
-      </c>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="1">
-        <v>180601010000012</v>
-      </c>
-      <c r="B59" s="1">
-        <v>868744030897767</v>
+        <v>180601010000011</v>
+      </c>
+      <c r="B59" s="59">
+        <v>863703033732764</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A60" s="21">
+    <row r="60" spans="1:9" ht="14.25">
+      <c r="A60" s="1">
+        <v>180601010000012</v>
+      </c>
+      <c r="B60" s="59">
+        <v>868744030897767</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A61" s="21">
         <v>180601010000014</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B61" s="61">
         <v>868744030898922</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C61" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D61" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="F61" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G61" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-    </row>
-    <row r="61" spans="1:9" s="47" customFormat="1" ht="14.25">
-      <c r="A61" s="1">
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+    </row>
+    <row r="62" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="A62" s="1">
         <v>180601010000015</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B62" s="59">
         <v>863703033726113</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="55"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-    </row>
-    <row r="62" spans="1:9" s="47" customFormat="1" ht="14.25">
-      <c r="A62" s="1">
-        <v>180601010000016</v>
-      </c>
-      <c r="B62" s="1">
-        <v>863703032882750</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="55"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="1"/>
       <c r="F62" s="8"/>
       <c r="G62" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="H62" s="46"/>
-      <c r="I62" s="46"/>
-    </row>
-    <row r="63" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+    </row>
+    <row r="63" spans="1:9" s="46" customFormat="1" ht="14.25">
       <c r="A63" s="1">
-        <v>180601010000017</v>
-      </c>
-      <c r="B63" s="1">
-        <v>868744030870970</v>
+        <v>180601010000016</v>
+      </c>
+      <c r="B63" s="59">
+        <v>863703032882750</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="55"/>
+      <c r="D63" s="54"/>
       <c r="E63" s="1"/>
       <c r="F63" s="8"/>
       <c r="G63" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="H63" s="46"/>
-      <c r="I63" s="46"/>
-    </row>
-    <row r="64" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+    </row>
+    <row r="64" spans="1:9" s="46" customFormat="1" ht="14.25">
       <c r="A64" s="1">
-        <v>180601010000019</v>
-      </c>
-      <c r="B64" s="1">
-        <v>863703033732442</v>
+        <v>180601010000017</v>
+      </c>
+      <c r="B64" s="59">
+        <v>868744030870970</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="55"/>
+      <c r="D64" s="54"/>
       <c r="E64" s="1"/>
       <c r="F64" s="8"/>
       <c r="G64" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="H64" s="46"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="1:9" s="47" customFormat="1" ht="14.25">
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+    </row>
+    <row r="65" spans="1:9" s="46" customFormat="1" ht="14.25">
       <c r="A65" s="1">
-        <v>180601010000020</v>
-      </c>
-      <c r="B65" s="1">
-        <v>863703033725131</v>
+        <v>180601010000019</v>
+      </c>
+      <c r="B65" s="59">
+        <v>863703033732442</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="55"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="1"/>
       <c r="F65" s="8"/>
       <c r="G65" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="H65" s="46"/>
-      <c r="I65" s="46"/>
-    </row>
-    <row r="66" spans="1:9" ht="14.25">
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+    </row>
+    <row r="66" spans="1:9" s="46" customFormat="1" ht="14.25">
       <c r="A66" s="1">
+        <v>180601010000020</v>
+      </c>
+      <c r="B66" s="59">
+        <v>863703033725131</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="54"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.25">
+      <c r="A67" s="1">
         <v>180601010000023</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B67" s="59">
         <v>868744030898047</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="G67" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="H66" s="32" t="s">
+      <c r="H67" s="32" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A67" s="21">
+    <row r="68" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A68" s="21">
         <v>180601010000067</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B68" s="61">
         <v>863703032882602</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C68" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D68" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="36" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="36" t="s">
         <v>241</v>
       </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-    </row>
-    <row r="68" spans="1:9" ht="14.25">
-      <c r="A68" s="11" t="s">
+      <c r="H68" s="34"/>
+      <c r="I68" s="34"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.25">
+      <c r="A69" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B69" s="59">
         <v>863703033732533</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E69" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="14.25">
-      <c r="A69" s="1">
-        <v>863703036115405</v>
-      </c>
-      <c r="B69" s="1">
-        <v>863703036115405</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="26" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="14.25">
       <c r="A70" s="1">
-        <v>863703036115587</v>
-      </c>
-      <c r="B70" s="1">
-        <v>863703036115587</v>
+        <v>863703036115405</v>
+      </c>
+      <c r="B70" s="59">
+        <v>863703036115405</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>100</v>
@@ -3361,104 +3421,142 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A71" s="50">
+    <row r="71" spans="1:9" ht="14.25">
+      <c r="A71" s="1">
+        <v>863703036115587</v>
+      </c>
+      <c r="B71" s="59">
+        <v>863703036115587</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="26" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="53" customFormat="1" ht="14.25">
+      <c r="A72" s="49">
         <v>868744030870210</v>
       </c>
-      <c r="B71" s="50">
+      <c r="B72" s="63">
         <v>868744030870210</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C72" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="50" t="s">
+      <c r="D72" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="50" t="s">
+      <c r="E72" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="57" t="s">
+      <c r="F72" s="55"/>
+      <c r="G72" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="H71" s="56"/>
-      <c r="I71" s="53"/>
-    </row>
-    <row r="72" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A72" s="50">
+      <c r="H72" s="55"/>
+      <c r="I72" s="52"/>
+    </row>
+    <row r="73" spans="1:9" s="53" customFormat="1" ht="14.25">
+      <c r="A73" s="49">
         <v>868744030870211</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B73" s="63">
         <v>868744030870211</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-    </row>
-    <row r="73" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A73" s="49">
+      <c r="C73" s="50"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+    </row>
+    <row r="74" spans="1:9" s="53" customFormat="1" ht="14.25">
+      <c r="A74" s="48">
         <v>180801010000001</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="52" t="s">
+      <c r="B74" s="63"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-    </row>
-    <row r="74" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A74" s="49">
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+    </row>
+    <row r="75" spans="1:9" s="53" customFormat="1" ht="14.25">
+      <c r="A75" s="48">
         <v>180801010000006</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51"/>
-      <c r="G74" s="52" t="s">
+      <c r="B75" s="63"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="H74" s="53"/>
-      <c r="I74" s="53"/>
-    </row>
-    <row r="75" spans="1:9" s="54" customFormat="1" ht="14.25">
-      <c r="A75" s="49">
+      <c r="H75" s="52"/>
+      <c r="I75" s="52"/>
+    </row>
+    <row r="76" spans="1:9" s="53" customFormat="1" ht="14.25">
+      <c r="A76" s="48">
         <v>180801010000009</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="52" t="s">
+      <c r="B76" s="63"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="H75" s="53"/>
-      <c r="I75" s="53"/>
-    </row>
-    <row r="76" spans="1:9" ht="14.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:9" ht="14.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+    </row>
+    <row r="77" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A77" s="21">
+        <v>180801020000001</v>
+      </c>
+      <c r="B77" s="65">
+        <v>868744033103981</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="H77" s="34"/>
+      <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" ht="14.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="59"/>
     </row>
     <row r="79" spans="1:9" ht="14.25">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="59"/>
+    </row>
+    <row r="80" spans="1:9" ht="14.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3478,11 +3576,11 @@
     <hyperlink ref="G35" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G38" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G39" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G40" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G42" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G41" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G43" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G58" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G44" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G59" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G60" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G12" location="客户表单!A10" display="北京安德森"/>
     <hyperlink ref="G13" location="客户表单!A7" display="易长根（出借）"/>
     <hyperlink ref="G16" location="客户表单!A7" display="易长根"/>
@@ -3490,10 +3588,10 @@
     <hyperlink ref="G18" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G19" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G21" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G66" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G68" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G55" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G67" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G69" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G56" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G57" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
     <hyperlink ref="G20" location="客户表单!A9" display="深圳市电易科技有限公司"/>
     <hyperlink ref="G22" location="客户表单!A10" display="北京安德森"/>
     <hyperlink ref="G23" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
@@ -3506,19 +3604,20 @@
     <hyperlink ref="G30" location="客户表单!A12" display="思科尔特"/>
     <hyperlink ref="G33" location="客户表单!A7" display="易长根"/>
     <hyperlink ref="G34" location="客户表单!A7" display="易长根"/>
-    <hyperlink ref="G44" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="G45" location="客户表单!A17" display="华大科技"/>
-    <hyperlink ref="G48" location="客户表单!A19" display="殷润民"/>
-    <hyperlink ref="G50" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="G53" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="G69" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G45" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G46" location="客户表单!A17" display="华大科技"/>
+    <hyperlink ref="G49" location="客户表单!A19" display="殷润民"/>
+    <hyperlink ref="G51" location="客户表单!A20" display="能投"/>
+    <hyperlink ref="G54" location="客户表单!A20" display="能投"/>
     <hyperlink ref="G70" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="G41" location="客户表单!A16" display="家盾卫士"/>
-    <hyperlink ref="G51" location="客户表单!A23" display="何继红"/>
-    <hyperlink ref="G54" location="客户表单!A22" display="詹从军"/>
-    <hyperlink ref="G52" location="客户表单!A24" display="燕南科技"/>
-    <hyperlink ref="G63:G65" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G62" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G71" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G42" location="客户表单!A16" display="家盾卫士"/>
+    <hyperlink ref="G52" location="客户表单!A23" display="何继红"/>
+    <hyperlink ref="G55" location="客户表单!A22" display="詹从军"/>
+    <hyperlink ref="G53" location="客户表单!A24" display="燕南科技"/>
+    <hyperlink ref="G64:G66" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G63" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G40" location="客户表单!A25" display="客户表单!A25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3861,7 +3960,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4104,7 +4203,7 @@
       <c r="A18" s="31" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="29" t="s">
         <v>201</v>
       </c>
@@ -4190,8 +4289,12 @@
       <c r="E24" s="29"/>
     </row>
     <row r="25" spans="1:5" ht="14.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
+      <c r="A25" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>302</v>
+      </c>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -10,13 +10,14 @@
     <sheet name="门锁表单" sheetId="1" r:id="rId1"/>
     <sheet name="已删除的门锁" sheetId="2" r:id="rId2"/>
     <sheet name="客户表单" sheetId="3" r:id="rId3"/>
+    <sheet name="云南83把锁" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="579">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,7 +1103,838 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不带刷卡功能，后台设置客户logo</t>
+    <t>不带刷卡功能，后台设置客户logo      公司：紫敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMEI号</t>
+  </si>
+  <si>
+    <t>设备号</t>
+  </si>
+  <si>
+    <t>MAC地址</t>
+  </si>
+  <si>
+    <t>180701010000001</t>
+  </si>
+  <si>
+    <t>868744033103924</t>
+  </si>
+  <si>
+    <t>180701010000002</t>
+  </si>
+  <si>
+    <t>E2:AC:3A:30:C3:D1</t>
+  </si>
+  <si>
+    <t>868744033100995</t>
+  </si>
+  <si>
+    <t>180701010000003</t>
+  </si>
+  <si>
+    <t>DC:02:67:3F:84:20</t>
+  </si>
+  <si>
+    <t>868744033100979</t>
+  </si>
+  <si>
+    <t>180701010000004</t>
+  </si>
+  <si>
+    <t>E2:6D:5E:39:1C:4E</t>
+  </si>
+  <si>
+    <t>868744033218862</t>
+  </si>
+  <si>
+    <t>180701010000005</t>
+  </si>
+  <si>
+    <t>DA:11:22:C4:0C:38</t>
+  </si>
+  <si>
+    <t>868744033100235</t>
+  </si>
+  <si>
+    <t>180701010000006</t>
+  </si>
+  <si>
+    <t>C2:96:8A:10:7F:FB</t>
+  </si>
+  <si>
+    <t>868744033100441</t>
+  </si>
+  <si>
+    <t>180701010000007</t>
+  </si>
+  <si>
+    <t>FD:16:96:3D:2B:CF</t>
+  </si>
+  <si>
+    <t>868744033184585</t>
+  </si>
+  <si>
+    <t>180701010000008</t>
+  </si>
+  <si>
+    <t>C5:EE:CC:5C:CF:BB</t>
+  </si>
+  <si>
+    <t>868744033101092</t>
+  </si>
+  <si>
+    <t>180701010000009</t>
+  </si>
+  <si>
+    <t>DD:53:AE:AB:23:52</t>
+  </si>
+  <si>
+    <t>180701010000010</t>
+  </si>
+  <si>
+    <t>868744033102439</t>
+  </si>
+  <si>
+    <t>180701010000011</t>
+  </si>
+  <si>
+    <t>F2:09:3E:85:AF:2C</t>
+  </si>
+  <si>
+    <t>180701010000012</t>
+  </si>
+  <si>
+    <t>868744030886083</t>
+  </si>
+  <si>
+    <t>180701010000013</t>
+  </si>
+  <si>
+    <t>EB:CE:0A:E0:A8:CF</t>
+  </si>
+  <si>
+    <t>868744030870111</t>
+  </si>
+  <si>
+    <t>180701010000014</t>
+  </si>
+  <si>
+    <t>E9:D7:B0:BD:D2:F0</t>
+  </si>
+  <si>
+    <t>868744033101225</t>
+  </si>
+  <si>
+    <t>180701010000015</t>
+  </si>
+  <si>
+    <t>F5:DB:C6:4D:90:CC</t>
+  </si>
+  <si>
+    <t>868744030898716</t>
+  </si>
+  <si>
+    <t>180701010000016</t>
+  </si>
+  <si>
+    <t>F0:D4:3D:F4:DD:A0</t>
+  </si>
+  <si>
+    <t>868744033100250</t>
+  </si>
+  <si>
+    <t>180701010000017</t>
+  </si>
+  <si>
+    <t>FC:E1:15:79:B3:6C</t>
+  </si>
+  <si>
+    <t>868744033100151</t>
+  </si>
+  <si>
+    <t>180701010000018</t>
+  </si>
+  <si>
+    <t>E6:72:5A:A0:C4:96</t>
+  </si>
+  <si>
+    <t>868744033100961</t>
+  </si>
+  <si>
+    <t>180701010000019</t>
+  </si>
+  <si>
+    <t>F3:B1:3D:62:A7:24</t>
+  </si>
+  <si>
+    <t>868744033210802</t>
+  </si>
+  <si>
+    <t>180701010000020</t>
+  </si>
+  <si>
+    <t>E2:38:31:9A:1C:75</t>
+  </si>
+  <si>
+    <t>868744033100268</t>
+  </si>
+  <si>
+    <t>180701010000021</t>
+  </si>
+  <si>
+    <t>E0:F7:4B:B5:53:19</t>
+  </si>
+  <si>
+    <t>868744030899474</t>
+  </si>
+  <si>
+    <t>180701010000022</t>
+  </si>
+  <si>
+    <t>FA:3C:07:83:92:43</t>
+  </si>
+  <si>
+    <t>868744030900389</t>
+  </si>
+  <si>
+    <t>180701010000023</t>
+  </si>
+  <si>
+    <t>C0:7A:F1:C7:42:11</t>
+  </si>
+  <si>
+    <t>868744030897825</t>
+  </si>
+  <si>
+    <t>180701010000024</t>
+  </si>
+  <si>
+    <t>DA:74:9E:08:DE:52</t>
+  </si>
+  <si>
+    <t>868744033209432</t>
+  </si>
+  <si>
+    <t>180701010000025</t>
+  </si>
+  <si>
+    <t>D9:E1:96:4F:E2:1B</t>
+  </si>
+  <si>
+    <t>868744030898880</t>
+  </si>
+  <si>
+    <t>180701010000026</t>
+  </si>
+  <si>
+    <t>C4:E6:97:D9:10:6C</t>
+  </si>
+  <si>
+    <t>868744030900686</t>
+  </si>
+  <si>
+    <t>180701010000027</t>
+  </si>
+  <si>
+    <t>DD:88:09:98:39:AF</t>
+  </si>
+  <si>
+    <t>868744033219100</t>
+  </si>
+  <si>
+    <t>180701010000028</t>
+  </si>
+  <si>
+    <t>D8:FC:2E:6B:15:2D</t>
+  </si>
+  <si>
+    <t>868744033101258</t>
+  </si>
+  <si>
+    <t>180701010000029</t>
+  </si>
+  <si>
+    <t>FD:BE:47:4C:17:11</t>
+  </si>
+  <si>
+    <t>868744033102173</t>
+  </si>
+  <si>
+    <t>180701010000030</t>
+  </si>
+  <si>
+    <t>E3:75:D4:77:44:4C</t>
+  </si>
+  <si>
+    <t>868744033213087</t>
+  </si>
+  <si>
+    <t>180701010000031</t>
+  </si>
+  <si>
+    <t>F5:CB:B1:F4:8E:1D</t>
+  </si>
+  <si>
+    <t>868744033102199</t>
+  </si>
+  <si>
+    <t>180701010000032</t>
+  </si>
+  <si>
+    <t>E1:CA:90:AF:EA:30</t>
+  </si>
+  <si>
+    <t>868744033100201</t>
+  </si>
+  <si>
+    <t>180701010000033</t>
+  </si>
+  <si>
+    <t>C3:CF:4F:EE:5A:D3</t>
+  </si>
+  <si>
+    <t>868744033101704</t>
+  </si>
+  <si>
+    <t>180701010000034</t>
+  </si>
+  <si>
+    <t>C6:26:B9:59:8B:CD</t>
+  </si>
+  <si>
+    <t>868744033142724</t>
+  </si>
+  <si>
+    <t>180701010000035</t>
+  </si>
+  <si>
+    <t>EC:7B:6C:C7:72:89</t>
+  </si>
+  <si>
+    <t>868744033101167</t>
+  </si>
+  <si>
+    <t>180701010000037</t>
+  </si>
+  <si>
+    <t>CF:FB:A6:7F:3D:24</t>
+  </si>
+  <si>
+    <t>868744033101670</t>
+  </si>
+  <si>
+    <t>180701010000038</t>
+  </si>
+  <si>
+    <t>FE:B7:47:AA:C8:85</t>
+  </si>
+  <si>
+    <t>868744033100409</t>
+  </si>
+  <si>
+    <t>180701010000039</t>
+  </si>
+  <si>
+    <t>C5:CA:D2:75:2F:EB</t>
+  </si>
+  <si>
+    <t>868744033102181</t>
+  </si>
+  <si>
+    <t>180701010000040</t>
+  </si>
+  <si>
+    <t>D1:9F:92:65:BB:4F</t>
+  </si>
+  <si>
+    <t>868744030871267</t>
+  </si>
+  <si>
+    <t>180701010000041</t>
+  </si>
+  <si>
+    <t>DC:93:7B:E3:25:5C</t>
+  </si>
+  <si>
+    <t>868744033101159</t>
+  </si>
+  <si>
+    <t>180701010000042</t>
+  </si>
+  <si>
+    <t>DB:03:65:98:0D:80</t>
+  </si>
+  <si>
+    <t>180701010000043</t>
+  </si>
+  <si>
+    <t>868744033102207</t>
+  </si>
+  <si>
+    <t>180701010000044</t>
+  </si>
+  <si>
+    <t>FA:24:9F:BF:51:86</t>
+  </si>
+  <si>
+    <t>868744033101027</t>
+  </si>
+  <si>
+    <t>180701010000045</t>
+  </si>
+  <si>
+    <t>E3:FA:62:82:DA:0C</t>
+  </si>
+  <si>
+    <t>868744033101266</t>
+  </si>
+  <si>
+    <t>180701010000046</t>
+  </si>
+  <si>
+    <t>FD:79:AF:DF:5F:87</t>
+  </si>
+  <si>
+    <t>868744033142732</t>
+  </si>
+  <si>
+    <t>180701010000048</t>
+  </si>
+  <si>
+    <t>D1:85:1E:07:79:C6</t>
+  </si>
+  <si>
+    <t>868744033209416</t>
+  </si>
+  <si>
+    <t>180701010000049</t>
+  </si>
+  <si>
+    <t>D4:C1:94:90:B5:1D</t>
+  </si>
+  <si>
+    <t>868744033101084</t>
+  </si>
+  <si>
+    <t>180701010000050</t>
+  </si>
+  <si>
+    <t>C8:2C:B7:39:54:C2</t>
+  </si>
+  <si>
+    <t>180701010000051</t>
+  </si>
+  <si>
+    <t>868744033101662</t>
+  </si>
+  <si>
+    <t>180701010000052</t>
+  </si>
+  <si>
+    <t>EA:32:0E:EC:F5:23</t>
+  </si>
+  <si>
+    <t>868744033101233</t>
+  </si>
+  <si>
+    <t>180701010000053</t>
+  </si>
+  <si>
+    <t>DF:E7:4E:C8:6A:0C</t>
+  </si>
+  <si>
+    <t>868744033103965</t>
+  </si>
+  <si>
+    <t>180701010000054</t>
+  </si>
+  <si>
+    <t>FF:D0:80:84:A7:1A</t>
+  </si>
+  <si>
+    <t>868744030886174</t>
+  </si>
+  <si>
+    <t>180701010000055</t>
+  </si>
+  <si>
+    <t>D3:F8:B0:FA:3A:0E</t>
+  </si>
+  <si>
+    <t>868744033100425</t>
+  </si>
+  <si>
+    <t>180701010000056</t>
+  </si>
+  <si>
+    <t>EC:D2:2F:4E:CD:F6</t>
+  </si>
+  <si>
+    <t>180701010000057</t>
+  </si>
+  <si>
+    <t>868744033102256</t>
+  </si>
+  <si>
+    <t>180701010000058</t>
+  </si>
+  <si>
+    <t>D1:0A:07:CE:63:DF</t>
+  </si>
+  <si>
+    <t>180701010000059</t>
+  </si>
+  <si>
+    <t>868744030898120</t>
+  </si>
+  <si>
+    <t>180701010000060</t>
+  </si>
+  <si>
+    <t>E6:D9:FB:E3:75:51</t>
+  </si>
+  <si>
+    <t>868744030870749</t>
+  </si>
+  <si>
+    <t>180701010000061</t>
+  </si>
+  <si>
+    <t>CB:40:67:5A:83:02</t>
+  </si>
+  <si>
+    <t>868744033100672</t>
+  </si>
+  <si>
+    <t>180701010000062</t>
+  </si>
+  <si>
+    <t>F7:FB:B8:8C:F7:11</t>
+  </si>
+  <si>
+    <t>868744033100417</t>
+  </si>
+  <si>
+    <t>180701010000063</t>
+  </si>
+  <si>
+    <t>F2:DF:7C:A9:9E:A2</t>
+  </si>
+  <si>
+    <t>868744033100243</t>
+  </si>
+  <si>
+    <t>180701010000064</t>
+  </si>
+  <si>
+    <t>F1:6F:D4:85:E7:25</t>
+  </si>
+  <si>
+    <t>868744033101019</t>
+  </si>
+  <si>
+    <t>180701010000065</t>
+  </si>
+  <si>
+    <t>E7:6E:93:C2:F4:82</t>
+  </si>
+  <si>
+    <t>180701010000066</t>
+  </si>
+  <si>
+    <t>868744030900090</t>
+  </si>
+  <si>
+    <t>180701010000067</t>
+  </si>
+  <si>
+    <t>C7:25:35:BA:95:9B</t>
+  </si>
+  <si>
+    <t>868744033101746</t>
+  </si>
+  <si>
+    <t>180701010000068</t>
+  </si>
+  <si>
+    <t>CE:9E:F1:E7:E8:F9</t>
+  </si>
+  <si>
+    <t>868744033313150</t>
+  </si>
+  <si>
+    <t>180701010000069</t>
+  </si>
+  <si>
+    <t>CB:76:34:1F:DF:34</t>
+  </si>
+  <si>
+    <t>180701010000070</t>
+  </si>
+  <si>
+    <t>868744033100862</t>
+  </si>
+  <si>
+    <t>180701010000071</t>
+  </si>
+  <si>
+    <t>CA:D7:9F:29:89:E4</t>
+  </si>
+  <si>
+    <t>868744033101605</t>
+  </si>
+  <si>
+    <t>180701010000072</t>
+  </si>
+  <si>
+    <t>FE:E5:D2:7D:81:A8</t>
+  </si>
+  <si>
+    <t>868744033102447</t>
+  </si>
+  <si>
+    <t>180701010000073</t>
+  </si>
+  <si>
+    <t>D2:04:EF:F7:6D:C3</t>
+  </si>
+  <si>
+    <t>868744033112131</t>
+  </si>
+  <si>
+    <t>180701010000074</t>
+  </si>
+  <si>
+    <t>C1:2B:B6:63:A8:8F</t>
+  </si>
+  <si>
+    <t>868744033218201</t>
+  </si>
+  <si>
+    <t>180701010000075</t>
+  </si>
+  <si>
+    <t>CD:8E:1F:40:BF:65</t>
+  </si>
+  <si>
+    <t>868744033101688</t>
+  </si>
+  <si>
+    <t>180701010000076</t>
+  </si>
+  <si>
+    <t>F1:03:37:C1:DE:6E</t>
+  </si>
+  <si>
+    <t>180701010000077</t>
+  </si>
+  <si>
+    <t>868744030899060</t>
+  </si>
+  <si>
+    <t>180701010000078</t>
+  </si>
+  <si>
+    <t>F3:EC:86:F4:E0:57</t>
+  </si>
+  <si>
+    <t>868744033101696</t>
+  </si>
+  <si>
+    <t>180701010000079</t>
+  </si>
+  <si>
+    <t>EE:5C:D5:B0:83:70</t>
+  </si>
+  <si>
+    <t>868744033101597</t>
+  </si>
+  <si>
+    <t>180701010000080</t>
+  </si>
+  <si>
+    <t>D0:F5:5A:B3:9B:36</t>
+  </si>
+  <si>
+    <t>868744033101241</t>
+  </si>
+  <si>
+    <t>180701010000081</t>
+  </si>
+  <si>
+    <t>DD:98:2C:72:E1:F2</t>
+  </si>
+  <si>
+    <t>180701010000082</t>
+  </si>
+  <si>
+    <t>868744033101217</t>
+  </si>
+  <si>
+    <t>180701010000083</t>
+  </si>
+  <si>
+    <t>EB:FE:54:9C:57:C4</t>
+  </si>
+  <si>
+    <t>868744033101050</t>
+  </si>
+  <si>
+    <t>180701010000085</t>
+  </si>
+  <si>
+    <t>CC:B3:2B:91:35:2D</t>
+  </si>
+  <si>
+    <t>868744030898823</t>
+  </si>
+  <si>
+    <t>180701010000086</t>
+  </si>
+  <si>
+    <t>E6:0E:7C:74:D6:67</t>
+  </si>
+  <si>
+    <t>868744033313135</t>
+  </si>
+  <si>
+    <t>180701010000087</t>
+  </si>
+  <si>
+    <t>F7:14:DB:5F:CE:EB</t>
+  </si>
+  <si>
+    <t>868744033100904</t>
+  </si>
+  <si>
+    <t>180701010000088</t>
+  </si>
+  <si>
+    <t>EC:9C:8A:5F:1E:42</t>
+  </si>
+  <si>
+    <t>868744030898096</t>
+  </si>
+  <si>
+    <t>180701010000089</t>
+  </si>
+  <si>
+    <t>F3:7E:42:45:CA:50</t>
+  </si>
+  <si>
+    <t>180701010000090</t>
+  </si>
+  <si>
+    <t>868744033100326</t>
+  </si>
+  <si>
+    <t>180701010000091</t>
+  </si>
+  <si>
+    <t>D4:95:AD:8A:0B:8A</t>
+  </si>
+  <si>
+    <t>868744033100276</t>
+  </si>
+  <si>
+    <t>180701010000092</t>
+  </si>
+  <si>
+    <t>C0:10:F1:4A:B4:65</t>
+  </si>
+  <si>
+    <t>868744030898849</t>
+  </si>
+  <si>
+    <t>180701010000093</t>
+  </si>
+  <si>
+    <t>CD:BD:DD:06:3C:5E</t>
+  </si>
+  <si>
+    <t>868744033102157</t>
+  </si>
+  <si>
+    <t>180701010000094</t>
+  </si>
+  <si>
+    <t>FD:F5:59:04:23:16</t>
+  </si>
+  <si>
+    <t>868744033100193</t>
+  </si>
+  <si>
+    <t>180701010000095</t>
+  </si>
+  <si>
+    <t>FE:49:CB:C3:9F:67</t>
+  </si>
+  <si>
+    <t>868744033110630</t>
+  </si>
+  <si>
+    <t>180701010000096</t>
+  </si>
+  <si>
+    <t>E1:BB:AC:5B:15:99</t>
+  </si>
+  <si>
+    <t>868744033313143</t>
+  </si>
+  <si>
+    <t>180701010000100</t>
+  </si>
+  <si>
+    <t>F2:06:67:29:8B:02</t>
+  </si>
+  <si>
+    <t>180701010000036</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000047</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000084</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000097</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000098</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>180701010000099</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>868744033102264</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4:CF:B0:C2:8C:D1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82eaca102637</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带去展会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1947,7 @@
     <numFmt numFmtId="177" formatCode="000000"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1200,6 +2032,34 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -1305,7 +2165,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1507,6 +2367,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1805,10 +2674,10 @@
   <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I43" sqref="I43"/>
+      <selection pane="bottomRight" activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3547,8 +4416,27 @@
       <c r="I77" s="34"/>
     </row>
     <row r="78" spans="1:9" ht="14.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="59"/>
+      <c r="A78" s="21">
+        <v>180401010000061</v>
+      </c>
+      <c r="B78" s="65">
+        <v>863703033732483</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>575</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>576</v>
+      </c>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="79" spans="1:9" ht="14.25">
       <c r="A79" s="1"/>
@@ -4381,4 +5269,1318 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="71" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="B2" s="68"/>
+      <c r="C2" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="68"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>316</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="B11" s="68"/>
+      <c r="C11" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="68"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="16">
+        <v>9</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="B13" s="68"/>
+      <c r="C13" s="72" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" s="68"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="16">
+        <v>10</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="16">
+        <v>11</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="16">
+        <v>13</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="70" t="s">
+        <v>349</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="16">
+        <v>14</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="16">
+        <v>15</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="16">
+        <v>16</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="16">
+        <v>17</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="16">
+        <v>18</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="16">
+        <v>19</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>366</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="16">
+        <v>20</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="16">
+        <v>21</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="16">
+        <v>22</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>375</v>
+      </c>
+      <c r="C26" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="16">
+        <v>23</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="C27" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="16">
+        <v>24</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="16">
+        <v>25</v>
+      </c>
+      <c r="B29" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="16">
+        <v>26</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="C30" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="16">
+        <v>27</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="C31" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="16">
+        <v>28</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="16">
+        <v>29</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="16">
+        <v>30</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>399</v>
+      </c>
+      <c r="C34" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="16">
+        <v>31</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="16">
+        <v>32</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>405</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="69"/>
+      <c r="C37" s="72" t="s">
+        <v>567</v>
+      </c>
+      <c r="D37" s="69"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="16">
+        <v>33</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C38" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="16">
+        <v>34</v>
+      </c>
+      <c r="B39" s="67" t="s">
+        <v>411</v>
+      </c>
+      <c r="C39" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="16">
+        <v>35</v>
+      </c>
+      <c r="B40" s="67" t="s">
+        <v>414</v>
+      </c>
+      <c r="C40" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="16">
+        <v>36</v>
+      </c>
+      <c r="B41" s="67" t="s">
+        <v>417</v>
+      </c>
+      <c r="C41" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="16">
+        <v>37</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>420</v>
+      </c>
+      <c r="C42" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="16">
+        <v>38</v>
+      </c>
+      <c r="B43" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="C43" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="14.25">
+      <c r="B44" s="68"/>
+      <c r="C44" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="D44" s="68"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="16">
+        <v>39</v>
+      </c>
+      <c r="B45" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="C45" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="16">
+        <v>40</v>
+      </c>
+      <c r="B46" s="67" t="s">
+        <v>430</v>
+      </c>
+      <c r="C46" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="16">
+        <v>41</v>
+      </c>
+      <c r="B47" s="67" t="s">
+        <v>433</v>
+      </c>
+      <c r="C47" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="69"/>
+      <c r="C48" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="D48" s="69"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="16">
+        <v>42</v>
+      </c>
+      <c r="B49" s="67" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" s="70" t="s">
+        <v>437</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="16">
+        <v>43</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>439</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="16">
+        <v>44</v>
+      </c>
+      <c r="B51" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="B52" s="69"/>
+      <c r="C52" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="D52" s="69"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="16">
+        <v>45</v>
+      </c>
+      <c r="B53" s="67" t="s">
+        <v>446</v>
+      </c>
+      <c r="C53" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="16">
+        <v>46</v>
+      </c>
+      <c r="B54" s="67" t="s">
+        <v>449</v>
+      </c>
+      <c r="C54" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="16">
+        <v>47</v>
+      </c>
+      <c r="B55" s="67" t="s">
+        <v>452</v>
+      </c>
+      <c r="C55" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="16">
+        <v>48</v>
+      </c>
+      <c r="B56" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="C56" s="70" t="s">
+        <v>456</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="16">
+        <v>49</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="C57" s="70" t="s">
+        <v>459</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="16">
+        <v>50</v>
+      </c>
+      <c r="B58" s="67" t="s">
+        <v>573</v>
+      </c>
+      <c r="C58" s="67" t="s">
+        <v>461</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="16">
+        <v>51</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="C59" s="70" t="s">
+        <v>463</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="69"/>
+      <c r="C60" s="72" t="s">
+        <v>465</v>
+      </c>
+      <c r="D60" s="69"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="16">
+        <v>52</v>
+      </c>
+      <c r="B61" s="67" t="s">
+        <v>466</v>
+      </c>
+      <c r="C61" s="70" t="s">
+        <v>467</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="16">
+        <v>53</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>469</v>
+      </c>
+      <c r="C62" s="70" t="s">
+        <v>470</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="16">
+        <v>54</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="C63" s="70" t="s">
+        <v>473</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="16">
+        <v>55</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="C64" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="16">
+        <v>56</v>
+      </c>
+      <c r="B65" s="67" t="s">
+        <v>478</v>
+      </c>
+      <c r="C65" s="70" t="s">
+        <v>479</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="16">
+        <v>57</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="C66" s="70" t="s">
+        <v>482</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="B67" s="69"/>
+      <c r="C67" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="D67" s="69"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="16">
+        <v>58</v>
+      </c>
+      <c r="B68" s="67" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68" s="70" t="s">
+        <v>486</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="16">
+        <v>59</v>
+      </c>
+      <c r="B69" s="67" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="70" t="s">
+        <v>489</v>
+      </c>
+      <c r="D69" s="67" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="16">
+        <v>60</v>
+      </c>
+      <c r="B70" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" s="70" t="s">
+        <v>492</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="69"/>
+      <c r="C71" s="72" t="s">
+        <v>494</v>
+      </c>
+      <c r="D71" s="69"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="16">
+        <v>61</v>
+      </c>
+      <c r="B72" s="67" t="s">
+        <v>495</v>
+      </c>
+      <c r="C72" s="70" t="s">
+        <v>496</v>
+      </c>
+      <c r="D72" s="67" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="16">
+        <v>62</v>
+      </c>
+      <c r="B73" s="67" t="s">
+        <v>498</v>
+      </c>
+      <c r="C73" s="70" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="16">
+        <v>63</v>
+      </c>
+      <c r="B74" s="67" t="s">
+        <v>501</v>
+      </c>
+      <c r="C74" s="70" t="s">
+        <v>502</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="16">
+        <v>64</v>
+      </c>
+      <c r="B75" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C75" s="70" t="s">
+        <v>505</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="16">
+        <v>65</v>
+      </c>
+      <c r="B76" s="67" t="s">
+        <v>507</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>508</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="16">
+        <v>66</v>
+      </c>
+      <c r="B77" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="C77" s="70" t="s">
+        <v>511</v>
+      </c>
+      <c r="D77" s="67" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="69"/>
+      <c r="C78" s="72" t="s">
+        <v>513</v>
+      </c>
+      <c r="D78" s="69"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="16">
+        <v>67</v>
+      </c>
+      <c r="B79" s="67" t="s">
+        <v>514</v>
+      </c>
+      <c r="C79" s="70" t="s">
+        <v>515</v>
+      </c>
+      <c r="D79" s="67" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="16">
+        <v>68</v>
+      </c>
+      <c r="B80" s="67" t="s">
+        <v>517</v>
+      </c>
+      <c r="C80" s="70" t="s">
+        <v>518</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="16">
+        <v>69</v>
+      </c>
+      <c r="B81" s="67" t="s">
+        <v>520</v>
+      </c>
+      <c r="C81" s="70" t="s">
+        <v>521</v>
+      </c>
+      <c r="D81" s="67" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="16">
+        <v>70</v>
+      </c>
+      <c r="B82" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="C82" s="70" t="s">
+        <v>524</v>
+      </c>
+      <c r="D82" s="67" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="69"/>
+      <c r="C83" s="72" t="s">
+        <v>526</v>
+      </c>
+      <c r="D83" s="69"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="16">
+        <v>71</v>
+      </c>
+      <c r="B84" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="C84" s="70" t="s">
+        <v>528</v>
+      </c>
+      <c r="D84" s="67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="69"/>
+      <c r="C85" s="73" t="s">
+        <v>569</v>
+      </c>
+      <c r="D85" s="69"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="16">
+        <v>72</v>
+      </c>
+      <c r="B86" s="67" t="s">
+        <v>530</v>
+      </c>
+      <c r="C86" s="70" t="s">
+        <v>531</v>
+      </c>
+      <c r="D86" s="67" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="16">
+        <v>73</v>
+      </c>
+      <c r="B87" s="67" t="s">
+        <v>533</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>534</v>
+      </c>
+      <c r="D87" s="67" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="16">
+        <v>74</v>
+      </c>
+      <c r="B88" s="67" t="s">
+        <v>536</v>
+      </c>
+      <c r="C88" s="70" t="s">
+        <v>537</v>
+      </c>
+      <c r="D88" s="67" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="16">
+        <v>75</v>
+      </c>
+      <c r="B89" s="67" t="s">
+        <v>539</v>
+      </c>
+      <c r="C89" s="70" t="s">
+        <v>540</v>
+      </c>
+      <c r="D89" s="67" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="16">
+        <v>76</v>
+      </c>
+      <c r="B90" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="C90" s="70" t="s">
+        <v>543</v>
+      </c>
+      <c r="D90" s="67" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91" s="69"/>
+      <c r="C91" s="72" t="s">
+        <v>545</v>
+      </c>
+      <c r="D91" s="69"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="16">
+        <v>77</v>
+      </c>
+      <c r="B92" s="67" t="s">
+        <v>546</v>
+      </c>
+      <c r="C92" s="70" t="s">
+        <v>547</v>
+      </c>
+      <c r="D92" s="67" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="16">
+        <v>78</v>
+      </c>
+      <c r="B93" s="67" t="s">
+        <v>549</v>
+      </c>
+      <c r="C93" s="70" t="s">
+        <v>550</v>
+      </c>
+      <c r="D93" s="67" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="16">
+        <v>79</v>
+      </c>
+      <c r="B94" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="C94" s="70" t="s">
+        <v>553</v>
+      </c>
+      <c r="D94" s="67" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="16">
+        <v>80</v>
+      </c>
+      <c r="B95" s="67" t="s">
+        <v>555</v>
+      </c>
+      <c r="C95" s="70" t="s">
+        <v>556</v>
+      </c>
+      <c r="D95" s="67" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="16">
+        <v>81</v>
+      </c>
+      <c r="B96" s="67" t="s">
+        <v>558</v>
+      </c>
+      <c r="C96" s="70" t="s">
+        <v>559</v>
+      </c>
+      <c r="D96" s="67" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="16">
+        <v>82</v>
+      </c>
+      <c r="B97" s="67" t="s">
+        <v>561</v>
+      </c>
+      <c r="C97" s="70" t="s">
+        <v>562</v>
+      </c>
+      <c r="D97" s="67" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" s="69"/>
+      <c r="C98" s="73" t="s">
+        <v>570</v>
+      </c>
+      <c r="D98" s="69"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="69"/>
+      <c r="C99" s="73" t="s">
+        <v>571</v>
+      </c>
+      <c r="D99" s="69"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100" s="69"/>
+      <c r="C100" s="73" t="s">
+        <v>572</v>
+      </c>
+      <c r="D100" s="69"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="16">
+        <v>83</v>
+      </c>
+      <c r="B101" s="67" t="s">
+        <v>564</v>
+      </c>
+      <c r="C101" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="D101" s="67" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="580">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1935,6 +1935,10 @@
   </si>
   <si>
     <t>带去展会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再丰达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2671,13 +2675,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H80" sqref="H80"/>
+      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4439,12 +4443,88 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="14.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="59"/>
+      <c r="A79" s="1">
+        <v>180801020000002</v>
+      </c>
+      <c r="B79" s="59">
+        <v>868744033209242</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="80" spans="1:9" ht="14.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="59"/>
+      <c r="A80" s="1">
+        <v>180801020000003</v>
+      </c>
+      <c r="B80" s="59">
+        <v>868744033316013</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="14.25">
+      <c r="A81" s="1">
+        <v>180801020000004</v>
+      </c>
+      <c r="B81" s="59">
+        <v>868744033316112</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G81" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="14.25">
+      <c r="A82" s="1">
+        <v>180801020000005</v>
+      </c>
+      <c r="B82" s="59">
+        <v>868744033210133</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G82" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="14.25">
+      <c r="A83" s="1">
+        <v>180801020000006</v>
+      </c>
+      <c r="B83" s="59">
+        <v>868744033101183</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G83" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.25">
+      <c r="A84" s="1">
+        <v>180801020000007</v>
+      </c>
+      <c r="B84" s="59">
+        <v>868744033316203</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G84" s="26" t="s">
+        <v>263</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4506,6 +4586,8 @@
     <hyperlink ref="G64:G66" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G63" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G40" location="客户表单!A25" display="客户表单!A25"/>
+    <hyperlink ref="G79" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G80:G84" location="客户表单!A2" display="再丰达"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="584">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>faaa5bb3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>faa9d253</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -825,18 +821,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>能投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>何继红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>归属</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,10 +857,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13559112082（张跃青）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18600561337（尹续霖）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -906,10 +890,6 @@
   </si>
   <si>
     <t>18612949801（殷润民）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张鹏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1939,6 +1919,42 @@
   </si>
   <si>
     <t>再丰达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000001082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89860317492039343676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投 张鹏 于2018/08/20归还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投  张鹏 于2018/08/20归还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙市芙蓉区荷花路铁通小区1501室  周生 18942560167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周生 18942560167</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周生</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2071,7 +2087,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2120,6 +2136,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2169,7 +2191,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2242,9 +2264,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2333,12 +2352,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,6 +2393,36 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2675,25 +2718,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D89" sqref="D89"/>
+      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="64" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="61" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="4" customWidth="1"/>
-    <col min="7" max="7" width="27.125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="32" customWidth="1"/>
-    <col min="9" max="9" width="66.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="27.125" style="37" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="66.625" style="31" customWidth="1"/>
     <col min="10" max="10" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2701,7 +2744,7 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2714,23 +2757,23 @@
         <v>141</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25">
       <c r="A2" s="19">
         <v>180401010000001</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="56">
         <v>868744030899037</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2743,7 +2786,7 @@
         <v>131</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2751,7 +2794,7 @@
       <c r="A3" s="19">
         <v>180401010000002</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="56">
         <v>868744030900421</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -2764,15 +2807,15 @@
         <v>132</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="26" t="s">
-        <v>227</v>
+      <c r="G3" s="25" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="19">
         <v>180401010000004</v>
       </c>
-      <c r="B4" s="59">
+      <c r="B4" s="56">
         <v>868744030900108</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2785,18 +2828,18 @@
         <v>133</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>248</v>
+      <c r="G4" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="19">
         <v>180401010000005</v>
       </c>
-      <c r="B5" s="59">
+      <c r="B5" s="56">
         <v>868744030898575</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2809,45 +2852,45 @@
         <v>134</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="35" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>249</v>
+      <c r="G5" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.25">
       <c r="A6" s="19">
         <v>180401010000006</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="56">
         <v>868744030871275</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>219</v>
-      </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>208</v>
+      <c r="G6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="19">
         <v>180401010000007</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="56">
         <v>868744030897734</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2860,15 +2903,15 @@
         <v>116</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="35" t="s">
-        <v>231</v>
+      <c r="G7" s="34" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="14.25">
       <c r="A8" s="19">
         <v>180401010000008</v>
       </c>
-      <c r="B8" s="59">
+      <c r="B8" s="56">
         <v>868744030897726</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2881,15 +2924,15 @@
         <v>135</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="26" t="s">
-        <v>232</v>
+      <c r="G8" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="19">
         <v>180401010000009</v>
       </c>
-      <c r="B9" s="59">
+      <c r="B9" s="56">
         <v>868744030885952</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2902,15 +2945,15 @@
         <v>98</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="26" t="s">
-        <v>262</v>
+      <c r="G9" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="14.25">
       <c r="A10" s="19">
         <v>180401010000010</v>
       </c>
-      <c r="B10" s="59">
+      <c r="B10" s="56">
         <v>868744030898963</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2923,15 +2966,15 @@
         <v>136</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="26" t="s">
-        <v>263</v>
+      <c r="G10" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="14.25">
       <c r="A11" s="19">
         <v>180401010000011</v>
       </c>
-      <c r="B11" s="59">
+      <c r="B11" s="56">
         <v>868744030900397</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2944,15 +2987,15 @@
         <v>137</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="26" t="s">
-        <v>263</v>
+      <c r="G11" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="14.25">
       <c r="A12" s="19">
         <v>180401010000012</v>
       </c>
-      <c r="B12" s="59">
+      <c r="B12" s="56">
         <v>868744030870269</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2965,15 +3008,15 @@
         <v>82</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="26" t="s">
-        <v>233</v>
+      <c r="G12" s="25" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="19">
         <v>180401010000013</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="56">
         <v>868744030870053</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2986,15 +3029,15 @@
         <v>138</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="26" t="s">
-        <v>234</v>
+      <c r="G13" s="25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="14.25">
       <c r="A14" s="19">
         <v>180401010000015</v>
       </c>
-      <c r="B14" s="59">
+      <c r="B14" s="56">
         <v>868744030870871</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3007,15 +3050,15 @@
         <v>139</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="26" t="s">
-        <v>263</v>
+      <c r="G14" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="14.25">
       <c r="A15" s="19">
         <v>180401010000016</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="56">
         <v>868744030900322</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3028,15 +3071,15 @@
         <v>79</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="26" t="s">
-        <v>263</v>
+      <c r="G15" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="19">
         <v>180401010000017</v>
       </c>
-      <c r="B16" s="59">
+      <c r="B16" s="56">
         <v>868744030898971</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3049,18 +3092,18 @@
         <v>113</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="I16" s="32" t="s">
-        <v>187</v>
+      <c r="G16" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="19">
         <v>180401010000020</v>
       </c>
-      <c r="B17" s="59">
+      <c r="B17" s="56">
         <v>863703032882487</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3073,20 +3116,20 @@
         <v>81</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="H17" s="32" t="s">
-        <v>251</v>
+        <v>188</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="19">
         <v>180401010000022</v>
       </c>
-      <c r="B18" s="59">
+      <c r="B18" s="56">
         <v>863703033732301</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3099,15 +3142,15 @@
         <v>106</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="26" t="s">
-        <v>262</v>
+      <c r="G18" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="19">
         <v>180401010000024</v>
       </c>
-      <c r="B19" s="59">
+      <c r="B19" s="56">
         <v>868744030870707</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3120,15 +3163,15 @@
         <v>97</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="26" t="s">
-        <v>262</v>
+      <c r="G19" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="19">
         <v>180401010000025</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="56">
         <v>868744030900207</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3141,21 +3184,21 @@
         <v>94</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="I20" s="32" t="s">
-        <v>203</v>
+      <c r="G20" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="19">
         <v>180401010000026</v>
       </c>
-      <c r="B21" s="59">
+      <c r="B21" s="56">
         <v>868744030870921</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3168,15 +3211,15 @@
         <v>89</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="26" t="s">
-        <v>262</v>
+      <c r="G21" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="19">
         <v>180401010000027</v>
       </c>
-      <c r="B22" s="59">
+      <c r="B22" s="56">
         <v>868744030897932</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3189,18 +3232,18 @@
         <v>87</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="26" t="s">
-        <v>233</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>253</v>
+      <c r="G22" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="14.25">
       <c r="A23" s="19">
         <v>180401010000028</v>
       </c>
-      <c r="B23" s="59">
+      <c r="B23" s="56">
         <v>868744030886224</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3213,21 +3256,21 @@
         <v>93</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>288</v>
+      <c r="G23" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="14.25">
       <c r="A24" s="19">
         <v>180401010000029</v>
       </c>
-      <c r="B24" s="59">
+      <c r="B24" s="56">
         <v>868744030870608</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3240,18 +3283,18 @@
         <v>88</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>255</v>
+      <c r="G24" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="19">
         <v>180401010000030</v>
       </c>
-      <c r="B25" s="59">
+      <c r="B25" s="56">
         <v>868744030897833</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3264,18 +3307,18 @@
         <v>95</v>
       </c>
       <c r="F25" s="2"/>
-      <c r="G25" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>187</v>
+      <c r="G25" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="14.25">
       <c r="A26" s="19">
         <v>180401010000031</v>
       </c>
-      <c r="B26" s="59">
+      <c r="B26" s="56">
         <v>868744030899086</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3288,21 +3331,21 @@
         <v>83</v>
       </c>
       <c r="F26" s="2"/>
-      <c r="G26" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="H26" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="I26" s="47" t="s">
-        <v>287</v>
+      <c r="G26" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="14.25">
       <c r="A27" s="19">
         <v>180401010000032</v>
       </c>
-      <c r="B27" s="59">
+      <c r="B27" s="56">
         <v>868744030871846</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3315,15 +3358,15 @@
         <v>96</v>
       </c>
       <c r="F27" s="2"/>
-      <c r="G27" s="26" t="s">
-        <v>267</v>
+      <c r="G27" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="19">
         <v>180401010000033</v>
       </c>
-      <c r="B28" s="59">
+      <c r="B28" s="56">
         <v>868744030897742</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3336,18 +3379,18 @@
         <v>85</v>
       </c>
       <c r="F28" s="2"/>
-      <c r="G28" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>256</v>
+      <c r="G28" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="H28" s="31" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="14.25">
       <c r="A29" s="19">
         <v>180401010000034</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="56">
         <v>868744030899508</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3360,21 +3403,21 @@
         <v>84</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>202</v>
+      <c r="G29" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I29" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="14.25">
       <c r="A30" s="19">
         <v>180401010000037</v>
       </c>
-      <c r="B30" s="59">
+      <c r="B30" s="56">
         <v>868744030897775</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3387,18 +3430,18 @@
         <v>114</v>
       </c>
       <c r="F30" s="2"/>
-      <c r="G30" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>255</v>
+      <c r="G30" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="31" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="14.25">
       <c r="A31" s="19">
         <v>180401010000038</v>
       </c>
-      <c r="B31" s="59">
+      <c r="B31" s="56">
         <v>868744030900348</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3411,15 +3454,15 @@
         <v>90</v>
       </c>
       <c r="F31" s="2"/>
-      <c r="G31" s="26" t="s">
-        <v>263</v>
+      <c r="G31" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="14.25">
       <c r="A32" s="19">
         <v>180401010000039</v>
       </c>
-      <c r="B32" s="59">
+      <c r="B32" s="56">
         <v>868744030900678</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3432,15 +3475,15 @@
         <v>86</v>
       </c>
       <c r="F32" s="2"/>
-      <c r="G32" s="26" t="s">
-        <v>263</v>
+      <c r="G32" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="14.25">
       <c r="A33" s="19">
         <v>180401010000046</v>
       </c>
-      <c r="B33" s="59">
+      <c r="B33" s="56">
         <v>868744030870905</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3453,18 +3496,18 @@
         <v>101</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>187</v>
+      <c r="G33" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="14.25">
       <c r="A34" s="19">
         <v>180401010000047</v>
       </c>
-      <c r="B34" s="59">
+      <c r="B34" s="56">
         <v>868744030870665</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3477,18 +3520,18 @@
         <v>102</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>187</v>
+      <c r="G34" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I34" s="31" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="14.25">
       <c r="A35" s="20">
         <v>180401010000048</v>
       </c>
-      <c r="B35" s="60">
+      <c r="B35" s="57">
         <v>868744030897916</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -3501,19 +3544,19 @@
         <v>22</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="26" t="s">
-        <v>263</v>
+      <c r="G35" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="14.25">
       <c r="A36" s="19">
         <v>180401010000049</v>
       </c>
-      <c r="B36" s="59">
+      <c r="B36" s="56">
         <v>868744030870590</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>48</v>
@@ -3522,7 +3565,7 @@
         <v>103</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="26">
+      <c r="G36" s="25">
         <v>18665883408</v>
       </c>
     </row>
@@ -3530,7 +3573,7 @@
       <c r="A37" s="20">
         <v>180401010000050</v>
       </c>
-      <c r="B37" s="60">
+      <c r="B37" s="57">
         <v>868744030874501</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3543,13 +3586,13 @@
         <v>22</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="26"/>
+      <c r="G37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="14.25">
       <c r="A38" s="19">
         <v>180401010000051</v>
       </c>
-      <c r="B38" s="59">
+      <c r="B38" s="56">
         <v>868744030900694</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -3562,15 +3605,15 @@
         <v>104</v>
       </c>
       <c r="F38" s="2"/>
-      <c r="G38" s="26" t="s">
-        <v>263</v>
+      <c r="G38" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="14.25">
       <c r="A39" s="20">
         <v>180401010000052</v>
       </c>
-      <c r="B39" s="60">
+      <c r="B39" s="57">
         <v>868744030897627</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -3583,39 +3626,39 @@
         <v>22</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="26" t="s">
-        <v>263</v>
+      <c r="G39" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25">
       <c r="A40" s="19">
         <v>180401010000053</v>
       </c>
-      <c r="B40" s="59">
+      <c r="B40" s="56">
         <v>868744030885937</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" s="31" t="s">
         <v>300</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="14.25">
       <c r="A41" s="19">
         <v>180401010000054</v>
       </c>
-      <c r="B41" s="59">
+      <c r="B41" s="56">
         <v>868744030897973</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3628,15 +3671,15 @@
         <v>115</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="26" t="s">
-        <v>263</v>
+      <c r="G41" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="14.25">
       <c r="A42" s="19">
         <v>180401010000055</v>
       </c>
-      <c r="B42" s="59">
+      <c r="B42" s="56">
         <v>863703033890075</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -3649,10 +3692,10 @@
         <v>119</v>
       </c>
       <c r="F42" s="2"/>
-      <c r="G42" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="H42" s="32">
+      <c r="G42" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="31">
         <v>13928787891</v>
       </c>
     </row>
@@ -3660,7 +3703,7 @@
       <c r="A43" s="19">
         <v>180401010000056</v>
       </c>
-      <c r="B43" s="59">
+      <c r="B43" s="56">
         <v>863703032889490</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -3673,15 +3716,15 @@
         <v>120</v>
       </c>
       <c r="F43" s="2"/>
-      <c r="G43" s="26" t="s">
-        <v>263</v>
+      <c r="G43" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25">
       <c r="A44" s="19">
         <v>180401010000058</v>
       </c>
-      <c r="B44" s="59">
+      <c r="B44" s="56">
         <v>868744030886695</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -3694,836 +3737,950 @@
         <v>121</v>
       </c>
       <c r="F44" s="2"/>
-      <c r="G44" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="14.25">
+      <c r="G44" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="45" customFormat="1" ht="14.25">
       <c r="A45" s="19">
-        <v>180401010000060</v>
-      </c>
-      <c r="B45" s="59">
-        <v>868744030870186</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>255</v>
+        <v>180401010000059</v>
+      </c>
+      <c r="B45" s="56">
+        <v>868744030870889</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>575</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>577</v>
+      </c>
+      <c r="F45" s="8"/>
+      <c r="G45" s="71" t="s">
+        <v>582</v>
+      </c>
+      <c r="H45" s="44" t="s">
+        <v>581</v>
+      </c>
+      <c r="I45" s="44" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="14.25">
       <c r="A46" s="19">
+        <v>180401010000060</v>
+      </c>
+      <c r="B46" s="56">
+        <v>868744030870186</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25">
+      <c r="A47" s="21">
+        <v>180401010000061</v>
+      </c>
+      <c r="B47" s="62">
+        <v>863703033732483</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>570</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>571</v>
+      </c>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="36" t="s">
+        <v>572</v>
+      </c>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25">
+      <c r="A48" s="19">
         <v>180401010000062</v>
       </c>
-      <c r="B46" s="59">
+      <c r="B48" s="56">
         <v>868744030897759</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="26" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H48" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A49" s="19">
+        <v>180401010000063</v>
+      </c>
+      <c r="B49" s="56">
+        <v>868744030870087</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="8"/>
+      <c r="G49" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+    </row>
+    <row r="50" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A50" s="19">
+        <v>180401010000064</v>
+      </c>
+      <c r="B50" s="56">
+        <v>868744030885911</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25">
+      <c r="A51" s="19">
+        <v>180401010004569</v>
+      </c>
+      <c r="B51" s="56">
+        <v>868744030899094</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="H46" s="32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A47" s="24">
-        <v>180401010000063</v>
-      </c>
-      <c r="B47" s="61">
-        <v>868744030870087</v>
-      </c>
-      <c r="C47" s="22" t="s">
+      <c r="H51" s="31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="42" customFormat="1" ht="14.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+    </row>
+    <row r="53" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A53" s="21">
+        <v>180601010000002</v>
+      </c>
+      <c r="B53" s="58">
+        <v>863703030143866</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A54" s="1">
+        <v>180601010000003</v>
+      </c>
+      <c r="B54" s="56">
+        <v>868744030885796</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="36" t="s">
+      <c r="D54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="I54" s="44"/>
+    </row>
+    <row r="55" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A55" s="1">
+        <v>180601010000004</v>
+      </c>
+      <c r="B55" s="56">
+        <v>863703032301108</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A56" s="21">
+        <v>180601010000005</v>
+      </c>
+      <c r="B56" s="58">
+        <v>868744030899110</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F56" s="22"/>
+      <c r="G56" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H56" s="33"/>
+      <c r="I56" s="33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A57" s="1">
+        <v>180601010000006</v>
+      </c>
+      <c r="B57" s="56">
+        <v>868744030897866</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="I57" s="44"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.25">
+      <c r="A58" s="1">
+        <v>180601010000007</v>
+      </c>
+      <c r="B58" s="56">
+        <v>868744030870376</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G58" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-    </row>
-    <row r="48" spans="1:9" s="46" customFormat="1" ht="14.25">
-      <c r="A48" s="19">
-        <v>180401010000064</v>
-      </c>
-      <c r="B48" s="59">
-        <v>868744030885911</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" s="54" t="s">
-        <v>223</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="45" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="14.25">
-      <c r="A49" s="19">
-        <v>180401010004569</v>
-      </c>
-      <c r="B49" s="59">
-        <v>868744030899094</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="43" customFormat="1" ht="14.25">
-      <c r="A50" s="39"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-    </row>
-    <row r="51" spans="1:9" ht="14.25">
-      <c r="A51" s="1">
-        <v>180601010000002</v>
-      </c>
-      <c r="B51" s="59">
-        <v>863703030143866</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="46" customFormat="1" ht="14.25">
-      <c r="A52" s="1">
-        <v>180601010000003</v>
-      </c>
-      <c r="B52" s="59">
-        <v>868744030885796</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G52" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="I52" s="45"/>
-    </row>
-    <row r="53" spans="1:9" s="46" customFormat="1" ht="14.25">
-      <c r="A53" s="1">
-        <v>180601010000004</v>
-      </c>
-      <c r="B53" s="59">
-        <v>863703032301108</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="G53" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H53" s="45"/>
-      <c r="I53" s="45" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="14.25">
-      <c r="A54" s="1">
-        <v>180601010000005</v>
-      </c>
-      <c r="B54" s="59">
-        <v>868744030899110</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="46" customFormat="1" ht="14.25">
-      <c r="A55" s="1">
-        <v>180601010000006</v>
-      </c>
-      <c r="B55" s="59">
-        <v>868744030897866</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>286</v>
-      </c>
-      <c r="I55" s="45"/>
-    </row>
-    <row r="56" spans="1:9" ht="14.25">
-      <c r="A56" s="1">
-        <v>180601010000007</v>
-      </c>
-      <c r="B56" s="59">
-        <v>868744030870376</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="I56" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14.25">
-      <c r="A57" s="1">
-        <v>180601010000008</v>
-      </c>
-      <c r="B57" s="59">
-        <v>868744030898989</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="I57" s="32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A58" s="21">
-        <v>180601010000010</v>
-      </c>
-      <c r="B58" s="61">
-        <v>863703030588730</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="F58" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="G58" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
+      <c r="I58" s="31" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="14.25">
       <c r="A59" s="1">
+        <v>180601010000008</v>
+      </c>
+      <c r="B59" s="56">
+        <v>868744030898989</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="I59" s="31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A60" s="21">
+        <v>180601010000010</v>
+      </c>
+      <c r="B60" s="58">
+        <v>863703030588730</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.25">
+      <c r="A61" s="1">
         <v>180601010000011</v>
       </c>
-      <c r="B59" s="59">
+      <c r="B61" s="56">
         <v>863703033732764</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E61" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G59" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.25">
-      <c r="A60" s="1">
+      <c r="F61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.25">
+      <c r="A62" s="1">
         <v>180601010000012</v>
       </c>
-      <c r="B60" s="59">
+      <c r="B62" s="56">
         <v>868744030897767</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A61" s="21">
-        <v>180601010000014</v>
-      </c>
-      <c r="B61" s="61">
-        <v>868744030898922</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G61" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-    </row>
-    <row r="62" spans="1:9" s="46" customFormat="1" ht="14.25">
-      <c r="A62" s="1">
-        <v>180601010000015</v>
-      </c>
-      <c r="B62" s="59">
-        <v>863703033726113</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="54"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-    </row>
-    <row r="63" spans="1:9" s="46" customFormat="1" ht="14.25">
-      <c r="A63" s="1">
-        <v>180601010000016</v>
-      </c>
-      <c r="B63" s="59">
-        <v>863703032882750</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-    </row>
-    <row r="64" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="D62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A63" s="21">
+        <v>180601010000014</v>
+      </c>
+      <c r="B63" s="58">
+        <v>868744030898922</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="G63" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+    </row>
+    <row r="64" spans="1:9" s="45" customFormat="1" ht="14.25">
       <c r="A64" s="1">
-        <v>180601010000017</v>
-      </c>
-      <c r="B64" s="59">
-        <v>868744030870970</v>
+        <v>180601010000015</v>
+      </c>
+      <c r="B64" s="56">
+        <v>863703033726113</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="54"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="1"/>
       <c r="F64" s="8"/>
-      <c r="G64" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-    </row>
-    <row r="65" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="G64" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+    </row>
+    <row r="65" spans="1:9" s="45" customFormat="1" ht="14.25">
       <c r="A65" s="1">
-        <v>180601010000019</v>
-      </c>
-      <c r="B65" s="59">
-        <v>863703033732442</v>
+        <v>180601010000016</v>
+      </c>
+      <c r="B65" s="56">
+        <v>863703032882750</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="54"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="1"/>
       <c r="F65" s="8"/>
-      <c r="G65" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-    </row>
-    <row r="66" spans="1:9" s="46" customFormat="1" ht="14.25">
+      <c r="G65" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+    </row>
+    <row r="66" spans="1:9" s="45" customFormat="1" ht="14.25">
       <c r="A66" s="1">
-        <v>180601010000020</v>
-      </c>
-      <c r="B66" s="59">
-        <v>863703033725131</v>
+        <v>180601010000017</v>
+      </c>
+      <c r="B66" s="56">
+        <v>868744030870970</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="54"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="1"/>
       <c r="F66" s="8"/>
-      <c r="G66" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-    </row>
-    <row r="67" spans="1:9" ht="14.25">
+      <c r="G66" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+    </row>
+    <row r="67" spans="1:9" s="45" customFormat="1" ht="14.25">
       <c r="A67" s="1">
+        <v>180601010000019</v>
+      </c>
+      <c r="B67" s="56">
+        <v>863703033732442</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="53"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.25">
+      <c r="A68" s="1">
         <v>180601010000023</v>
       </c>
-      <c r="B67" s="59">
+      <c r="B68" s="56">
         <v>868744030898047</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E68" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F68" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" s="31" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A69" s="1">
+        <v>180601010000067</v>
+      </c>
+      <c r="B69" s="56">
+        <v>863703032882602</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+    </row>
+    <row r="70" spans="1:9" ht="14.25">
+      <c r="A70" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G67" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="H67" s="32" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A68" s="21">
-        <v>180601010000067</v>
-      </c>
-      <c r="B68" s="61">
-        <v>863703032882602</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-    </row>
-    <row r="69" spans="1:9" ht="14.25">
-      <c r="A69" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B69" s="59">
+      <c r="B70" s="56">
         <v>863703033732533</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F69" s="2"/>
-      <c r="G69" s="26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.25">
-      <c r="A70" s="1">
-        <v>863703036115405</v>
-      </c>
-      <c r="B70" s="59">
-        <v>863703036115405</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="26" t="s">
-        <v>236</v>
+      <c r="G70" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25">
       <c r="A71" s="1">
-        <v>863703036115587</v>
-      </c>
-      <c r="B71" s="59">
-        <v>863703036115587</v>
+        <v>863703036115405</v>
+      </c>
+      <c r="B71" s="56">
+        <v>863703036115405</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>100</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="53" customFormat="1" ht="14.25">
-      <c r="A72" s="49">
+      <c r="G71" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.25">
+      <c r="A72" s="1">
+        <v>863703036115587</v>
+      </c>
+      <c r="B72" s="56">
+        <v>863703036115587</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="2"/>
+      <c r="G72" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="77" customFormat="1" ht="14.25">
+      <c r="A73" s="72">
         <v>868744030870210</v>
       </c>
-      <c r="B72" s="63">
+      <c r="B73" s="73">
         <v>868744030870210</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C73" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D72" s="49" t="s">
+      <c r="D73" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="E72" s="49" t="s">
+      <c r="E73" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="56" t="s">
-        <v>289</v>
-      </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="52"/>
-    </row>
-    <row r="73" spans="1:9" s="53" customFormat="1" ht="14.25">
-      <c r="A73" s="49">
+      <c r="F73" s="74"/>
+      <c r="G73" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H73" s="74"/>
+      <c r="I73" s="76"/>
+    </row>
+    <row r="74" spans="1:9" s="52" customFormat="1" ht="14.25">
+      <c r="A74" s="48">
         <v>868744030870211</v>
       </c>
-      <c r="B73" s="63">
+      <c r="B74" s="60">
         <v>868744030870211</v>
       </c>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-    </row>
-    <row r="74" spans="1:9" s="53" customFormat="1" ht="14.25">
-      <c r="A74" s="48">
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="50"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="51"/>
+    </row>
+    <row r="75" spans="1:9" s="77" customFormat="1" ht="14.25">
+      <c r="A75" s="78">
         <v>180801010000001</v>
       </c>
-      <c r="B74" s="63"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-    </row>
-    <row r="75" spans="1:9" s="53" customFormat="1" ht="14.25">
-      <c r="A75" s="48">
+      <c r="B75" s="73"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="79"/>
+      <c r="E75" s="79"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="80" t="s">
+        <v>291</v>
+      </c>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+    </row>
+    <row r="76" spans="1:9" s="52" customFormat="1" ht="14.25">
+      <c r="A76" s="47">
         <v>180801010000006</v>
       </c>
-      <c r="B75" s="63"/>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-    </row>
-    <row r="76" spans="1:9" s="53" customFormat="1" ht="14.25">
-      <c r="A76" s="48">
+      <c r="B76" s="60"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+    </row>
+    <row r="77" spans="1:9" s="52" customFormat="1" ht="14.25">
+      <c r="A77" s="47">
         <v>180801010000009</v>
       </c>
-      <c r="B76" s="63"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="1:9" s="23" customFormat="1" ht="14.25">
-      <c r="A77" s="21">
+      <c r="B77" s="60"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+    </row>
+    <row r="78" spans="1:9" s="23" customFormat="1" ht="14.25">
+      <c r="A78" s="21">
         <v>180801020000001</v>
       </c>
-      <c r="B77" s="65">
+      <c r="B78" s="62">
         <v>868744033103981</v>
       </c>
-      <c r="C77" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-    </row>
-    <row r="78" spans="1:9" ht="14.25">
-      <c r="A78" s="21">
-        <v>180401010000061</v>
-      </c>
-      <c r="B78" s="65">
-        <v>863703033732483</v>
-      </c>
       <c r="C78" s="22" t="s">
-        <v>575</v>
+        <v>293</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34" t="s">
-        <v>578</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="E78" s="63"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
     </row>
     <row r="79" spans="1:9" ht="14.25">
       <c r="A79" s="1">
         <v>180801020000002</v>
       </c>
-      <c r="B79" s="59">
+      <c r="B79" s="56">
         <v>868744033209242</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>263</v>
+        <v>574</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="14.25">
       <c r="A80" s="1">
         <v>180801020000003</v>
       </c>
-      <c r="B80" s="59">
+      <c r="B80" s="56">
         <v>868744033316013</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G80" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="14.25">
+        <v>574</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.25">
       <c r="A81" s="1">
         <v>180801020000004</v>
       </c>
-      <c r="B81" s="59">
+      <c r="B81" s="56">
         <v>868744033316112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G81" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="14.25">
+        <v>574</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.25">
       <c r="A82" s="1">
         <v>180801020000005</v>
       </c>
-      <c r="B82" s="59">
+      <c r="B82" s="56">
         <v>868744033210133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G82" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="14.25">
+        <v>574</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.25">
       <c r="A83" s="1">
         <v>180801020000006</v>
       </c>
-      <c r="B83" s="59">
+      <c r="B83" s="56">
         <v>868744033101183</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G83" s="26" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="14.25">
+        <v>574</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.25">
       <c r="A84" s="1">
         <v>180801020000007</v>
       </c>
-      <c r="B84" s="59">
+      <c r="B84" s="56">
         <v>868744033316203</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G84" s="26" t="s">
-        <v>263</v>
+        <v>574</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.25">
+      <c r="A85" s="1">
+        <v>180801020000008</v>
+      </c>
+      <c r="B85" s="56">
+        <v>867900040032925</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="14.25">
+      <c r="A86" s="1">
+        <v>180801020000009</v>
+      </c>
+      <c r="B86" s="56">
+        <v>867900040032602</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="14.25">
+      <c r="A87" s="1">
+        <v>180801020000010</v>
+      </c>
+      <c r="B87" s="56">
+        <v>867900040033311</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.25">
+      <c r="A88" s="1">
+        <v>180801020000011</v>
+      </c>
+      <c r="B88" s="56">
+        <v>867900040032552</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="14.25">
+      <c r="A89" s="1">
+        <v>180801020000012</v>
+      </c>
+      <c r="B89" s="56">
+        <v>867900040032412</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="45" customFormat="1" ht="14.25">
+      <c r="A90" s="1">
+        <v>180801020000013</v>
+      </c>
+      <c r="B90" s="56">
+        <v>863703033725131</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="53"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+    </row>
+    <row r="91" spans="1:9" ht="14.25">
+      <c r="A91" s="1">
+        <v>180801020000014</v>
+      </c>
+      <c r="B91" s="56">
+        <v>868744030870194</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="53"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4547,8 +4704,8 @@
     <hyperlink ref="G41" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G43" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G44" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G59" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G60" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G61" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G62" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G12" location="客户表单!A10" display="北京安德森"/>
     <hyperlink ref="G13" location="客户表单!A7" display="易长根（出借）"/>
     <hyperlink ref="G16" location="客户表单!A7" display="易长根"/>
@@ -4556,10 +4713,10 @@
     <hyperlink ref="G18" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G19" location="客户表单!A22" display="正峰电子"/>
     <hyperlink ref="G21" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G67" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G69" location="客户表单!A22" display="正峰电子"/>
-    <hyperlink ref="G56" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
-    <hyperlink ref="G57" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G68" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G70" location="客户表单!A22" display="正峰电子"/>
+    <hyperlink ref="G58" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
+    <hyperlink ref="G59" location="客户表单!A8" display="北京瑞航核心科技有限公司"/>
     <hyperlink ref="G20" location="客户表单!A9" display="深圳市电易科技有限公司"/>
     <hyperlink ref="G22" location="客户表单!A10" display="北京安德森"/>
     <hyperlink ref="G23" location="客户表单!A11" display="东疆艾威（艾威国际房车）"/>
@@ -4572,22 +4729,25 @@
     <hyperlink ref="G30" location="客户表单!A12" display="思科尔特"/>
     <hyperlink ref="G33" location="客户表单!A7" display="易长根"/>
     <hyperlink ref="G34" location="客户表单!A7" display="易长根"/>
-    <hyperlink ref="G45" location="客户表单!A12" display="思科尔特"/>
-    <hyperlink ref="G46" location="客户表单!A17" display="华大科技"/>
-    <hyperlink ref="G49" location="客户表单!A19" display="殷润民"/>
-    <hyperlink ref="G51" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="G54" location="客户表单!A20" display="能投"/>
-    <hyperlink ref="G70" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G46" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G51" location="客户表单!A19" display="殷润民"/>
     <hyperlink ref="G71" location="客户表单!A12" display="思科尔特"/>
+    <hyperlink ref="G72" location="客户表单!A12" display="思科尔特"/>
     <hyperlink ref="G42" location="客户表单!A16" display="家盾卫士"/>
-    <hyperlink ref="G52" location="客户表单!A23" display="何继红"/>
-    <hyperlink ref="G55" location="客户表单!A22" display="詹从军"/>
-    <hyperlink ref="G53" location="客户表单!A24" display="燕南科技"/>
-    <hyperlink ref="G64:G66" location="客户表单!A2" display="再丰达"/>
-    <hyperlink ref="G63" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G54" location="客户表单!A23" display="何继红"/>
+    <hyperlink ref="G57" location="客户表单!A22" display="詹从军"/>
+    <hyperlink ref="G55" location="客户表单!A24" display="燕南科技"/>
+    <hyperlink ref="G66:G90" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G65" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G40" location="客户表单!A25" display="客户表单!A25"/>
     <hyperlink ref="G79" location="客户表单!A2" display="再丰达"/>
     <hyperlink ref="G80:G84" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G69" location="客户表单!A24" display="燕南科技"/>
+    <hyperlink ref="G49" location="客户表单!A24" display="燕南科技"/>
+    <hyperlink ref="G85:G89" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G45" location="客户表单!A26" display="周生"/>
+    <hyperlink ref="G91" location="客户表单!A2" display="再丰达"/>
+    <hyperlink ref="G48" location="客户表单!A17" display="华大科技"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4634,16 +4794,16 @@
         <v>141</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -4670,7 +4830,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="13"/>
       <c r="I2" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J2" s="14">
         <v>43292.665138888886</v>
@@ -4700,7 +4860,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="13"/>
       <c r="I3" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J3" s="14">
         <v>43293.586481481485</v>
@@ -4730,7 +4890,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="13"/>
       <c r="I4" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" s="14">
         <v>43278.424328703702</v>
@@ -4760,7 +4920,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="13"/>
       <c r="I5" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J5" s="14">
         <v>43280.396319444444</v>
@@ -4790,7 +4950,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="13"/>
       <c r="I6" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J6" s="14">
         <v>43263.834722222222</v>
@@ -4820,7 +4980,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="13"/>
       <c r="I7" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J7" s="14">
         <v>43278.419710648152</v>
@@ -4850,7 +5010,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="13"/>
       <c r="I8" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J8" s="14">
         <v>43278.421099537038</v>
@@ -4880,7 +5040,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="13"/>
       <c r="I9" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J9" s="14">
         <v>43278.422592592593</v>
@@ -4909,11 +5069,11 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="I10" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4930,7 +5090,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4943,408 +5103,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1">
+      <c r="A5" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="28"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28">
+        <v>13928787891</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" ht="14.25">
+      <c r="A21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="1:5" ht="14.25">
+      <c r="A22" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25">
-      <c r="A3" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
-      <c r="A4" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" s="29"/>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="29"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.25">
-      <c r="A6" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25">
-      <c r="A7" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25">
-      <c r="A8" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" ht="14.25">
-      <c r="A9" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.25">
-      <c r="A16" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29">
-        <v>13928787891</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25">
-      <c r="A17" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.25">
-      <c r="A18" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25">
-      <c r="A20" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25">
-      <c r="A21" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25">
-      <c r="A22" s="28" t="s">
-        <v>278</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29" t="s">
-        <v>279</v>
-      </c>
-      <c r="D22" s="29" t="s">
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>277</v>
       </c>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>280</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="E23" s="29"/>
+      <c r="E23" s="28"/>
     </row>
     <row r="24" spans="1:5" ht="14.25">
-      <c r="A24" s="28" t="s">
-        <v>293</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="29"/>
+      <c r="A24" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>287</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" ht="14.25">
-      <c r="A25" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="A25" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
     <row r="26" spans="1:5" ht="14.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="A26" s="27" t="s">
+        <v>583</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="E26" s="28"/>
     </row>
     <row r="27" spans="1:5" ht="14.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
     </row>
     <row r="28" spans="1:5" ht="14.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
     </row>
     <row r="29" spans="1:5" ht="14.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" ht="14.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
     </row>
     <row r="31" spans="1:5" ht="14.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="14.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
     </row>
     <row r="33" spans="1:5" ht="14.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
     </row>
     <row r="34" spans="1:5" ht="14.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
     </row>
     <row r="35" spans="1:5" ht="14.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
     </row>
     <row r="36" spans="1:5" ht="14.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5365,1300 +5531,1300 @@
   <cols>
     <col min="1" max="1" width="4.75" style="16" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="71" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="68" customWidth="1"/>
     <col min="4" max="4" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="B1" s="67" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="D1" s="67" t="s">
-        <v>308</v>
+      <c r="B1" s="64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="72" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="68"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="65"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>312</v>
+      <c r="B3" s="64" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" s="64" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>314</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>315</v>
+      <c r="B4" s="64" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="64" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>316</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>317</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>318</v>
+      <c r="B5" s="64" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>312</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="67" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="D6" s="67" t="s">
-        <v>321</v>
+      <c r="B6" s="64" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>324</v>
+      <c r="B7" s="64" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="67" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>327</v>
+      <c r="B8" s="64" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" s="64" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="70" t="s">
-        <v>329</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>330</v>
+      <c r="B9" s="64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="67" t="s">
-        <v>331</v>
-      </c>
-      <c r="C10" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="D10" s="67" t="s">
-        <v>333</v>
+      <c r="B10" s="64" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" s="68"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="65"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16">
         <v>9</v>
       </c>
-      <c r="B12" s="67" t="s">
-        <v>335</v>
-      </c>
-      <c r="C12" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="D12" s="67" t="s">
-        <v>337</v>
+      <c r="B12" s="64" t="s">
+        <v>330</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
-      <c r="B13" s="68"/>
-      <c r="C13" s="72" t="s">
-        <v>338</v>
-      </c>
-      <c r="D13" s="68"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="69" t="s">
+        <v>333</v>
+      </c>
+      <c r="D13" s="65"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="16">
         <v>10</v>
       </c>
-      <c r="B14" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>340</v>
-      </c>
-      <c r="D14" s="67" t="s">
-        <v>341</v>
+      <c r="B14" s="64" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="16">
         <v>11</v>
       </c>
-      <c r="B15" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="67" t="s">
-        <v>344</v>
+      <c r="B15" s="64" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="16">
         <v>12</v>
       </c>
-      <c r="B16" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="C16" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="67" t="s">
-        <v>347</v>
+      <c r="B16" s="64" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="16">
         <v>13</v>
       </c>
-      <c r="B17" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="67" t="s">
-        <v>350</v>
+      <c r="B17" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="16">
         <v>14</v>
       </c>
-      <c r="B18" s="67" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="D18" s="67" t="s">
-        <v>353</v>
+      <c r="B18" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>347</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16">
         <v>15</v>
       </c>
-      <c r="B19" s="67" t="s">
-        <v>354</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="67" t="s">
-        <v>356</v>
+      <c r="B19" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="16">
         <v>16</v>
       </c>
-      <c r="B20" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="D20" s="67" t="s">
-        <v>359</v>
+      <c r="B20" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>353</v>
+      </c>
+      <c r="D20" s="64" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="16">
         <v>17</v>
       </c>
-      <c r="B21" s="67" t="s">
-        <v>360</v>
-      </c>
-      <c r="C21" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>362</v>
+      <c r="B21" s="64" t="s">
+        <v>355</v>
+      </c>
+      <c r="C21" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="D21" s="64" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="16">
         <v>18</v>
       </c>
-      <c r="B22" s="67" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="D22" s="67" t="s">
-        <v>365</v>
+      <c r="B22" s="64" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="16">
         <v>19</v>
       </c>
-      <c r="B23" s="67" t="s">
-        <v>366</v>
-      </c>
-      <c r="C23" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>368</v>
+      <c r="B23" s="64" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>362</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="16">
         <v>20</v>
       </c>
-      <c r="B24" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" s="70" t="s">
-        <v>370</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>371</v>
+      <c r="B24" s="64" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>365</v>
+      </c>
+      <c r="D24" s="64" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="16">
         <v>21</v>
       </c>
-      <c r="B25" s="67" t="s">
-        <v>372</v>
-      </c>
-      <c r="C25" s="70" t="s">
-        <v>373</v>
-      </c>
-      <c r="D25" s="67" t="s">
-        <v>374</v>
+      <c r="B25" s="64" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="16">
         <v>22</v>
       </c>
-      <c r="B26" s="67" t="s">
-        <v>375</v>
-      </c>
-      <c r="C26" s="70" t="s">
-        <v>376</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>377</v>
+      <c r="B26" s="64" t="s">
+        <v>370</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>371</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="16">
         <v>23</v>
       </c>
-      <c r="B27" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="C27" s="70" t="s">
-        <v>379</v>
-      </c>
-      <c r="D27" s="67" t="s">
-        <v>380</v>
+      <c r="B27" s="64" t="s">
+        <v>373</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>374</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="16">
         <v>24</v>
       </c>
-      <c r="B28" s="67" t="s">
-        <v>381</v>
-      </c>
-      <c r="C28" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>383</v>
+      <c r="B28" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="C28" s="67" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="16">
         <v>25</v>
       </c>
-      <c r="B29" s="67" t="s">
-        <v>384</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>385</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>386</v>
+      <c r="B29" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="67" t="s">
+        <v>380</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="16">
         <v>26</v>
       </c>
-      <c r="B30" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="C30" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>389</v>
+      <c r="B30" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="D30" s="64" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="16">
         <v>27</v>
       </c>
-      <c r="B31" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="C31" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>392</v>
+      <c r="B31" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="16">
         <v>28</v>
       </c>
-      <c r="B32" s="67" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32" s="70" t="s">
-        <v>394</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>395</v>
+      <c r="B32" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="16">
         <v>29</v>
       </c>
-      <c r="B33" s="67" t="s">
-        <v>396</v>
-      </c>
-      <c r="C33" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>398</v>
+      <c r="B33" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="16">
         <v>30</v>
       </c>
-      <c r="B34" s="67" t="s">
-        <v>399</v>
-      </c>
-      <c r="C34" s="70" t="s">
-        <v>400</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>401</v>
+      <c r="B34" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>395</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="16">
         <v>31</v>
       </c>
-      <c r="B35" s="67" t="s">
-        <v>402</v>
-      </c>
-      <c r="C35" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="D35" s="67" t="s">
-        <v>404</v>
+      <c r="B35" s="64" t="s">
+        <v>397</v>
+      </c>
+      <c r="C35" s="67" t="s">
+        <v>398</v>
+      </c>
+      <c r="D35" s="64" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="16">
         <v>32</v>
       </c>
-      <c r="B36" s="67" t="s">
-        <v>405</v>
-      </c>
-      <c r="C36" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>407</v>
+      <c r="B36" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="C36" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="B37" s="69"/>
-      <c r="C37" s="72" t="s">
-        <v>567</v>
-      </c>
-      <c r="D37" s="69"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="69" t="s">
+        <v>562</v>
+      </c>
+      <c r="D37" s="66"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="16">
         <v>33</v>
       </c>
-      <c r="B38" s="67" t="s">
-        <v>408</v>
-      </c>
-      <c r="C38" s="70" t="s">
-        <v>409</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>410</v>
+      <c r="B38" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="D38" s="64" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="16">
         <v>34</v>
       </c>
-      <c r="B39" s="67" t="s">
-        <v>411</v>
-      </c>
-      <c r="C39" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="D39" s="67" t="s">
-        <v>413</v>
+      <c r="B39" s="64" t="s">
+        <v>406</v>
+      </c>
+      <c r="C39" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="16">
         <v>35</v>
       </c>
-      <c r="B40" s="67" t="s">
-        <v>414</v>
-      </c>
-      <c r="C40" s="70" t="s">
-        <v>415</v>
-      </c>
-      <c r="D40" s="67" t="s">
-        <v>416</v>
+      <c r="B40" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="C40" s="67" t="s">
+        <v>410</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="16">
         <v>36</v>
       </c>
-      <c r="B41" s="67" t="s">
-        <v>417</v>
-      </c>
-      <c r="C41" s="70" t="s">
-        <v>418</v>
-      </c>
-      <c r="D41" s="67" t="s">
-        <v>419</v>
+      <c r="B41" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="C41" s="67" t="s">
+        <v>413</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="16">
         <v>37</v>
       </c>
-      <c r="B42" s="67" t="s">
-        <v>420</v>
-      </c>
-      <c r="C42" s="70" t="s">
-        <v>421</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>422</v>
+      <c r="B42" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="C42" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="64" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="16">
         <v>38</v>
       </c>
-      <c r="B43" s="67" t="s">
-        <v>423</v>
-      </c>
-      <c r="C43" s="70" t="s">
-        <v>424</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>425</v>
+      <c r="B43" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="D43" s="64" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25">
-      <c r="B44" s="68"/>
-      <c r="C44" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="D44" s="68"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="69" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="65"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="16">
         <v>39</v>
       </c>
-      <c r="B45" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="C45" s="70" t="s">
-        <v>428</v>
-      </c>
-      <c r="D45" s="67" t="s">
-        <v>429</v>
+      <c r="B45" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="C45" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="16">
         <v>40</v>
       </c>
-      <c r="B46" s="67" t="s">
-        <v>430</v>
-      </c>
-      <c r="C46" s="70" t="s">
-        <v>431</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>432</v>
+      <c r="B46" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C46" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="16">
         <v>41</v>
       </c>
-      <c r="B47" s="67" t="s">
-        <v>433</v>
-      </c>
-      <c r="C47" s="70" t="s">
-        <v>434</v>
-      </c>
-      <c r="D47" s="67" t="s">
-        <v>435</v>
+      <c r="B47" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="C47" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="B48" s="69"/>
-      <c r="C48" s="73" t="s">
-        <v>568</v>
-      </c>
-      <c r="D48" s="69"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="70" t="s">
+        <v>563</v>
+      </c>
+      <c r="D48" s="66"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="16">
         <v>42</v>
       </c>
-      <c r="B49" s="67" t="s">
-        <v>436</v>
-      </c>
-      <c r="C49" s="70" t="s">
-        <v>437</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>438</v>
+      <c r="B49" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="16">
         <v>43</v>
       </c>
-      <c r="B50" s="67" t="s">
-        <v>439</v>
-      </c>
-      <c r="C50" s="70" t="s">
-        <v>440</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>441</v>
+      <c r="B50" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="C50" s="67" t="s">
+        <v>435</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="16">
         <v>44</v>
       </c>
-      <c r="B51" s="67" t="s">
-        <v>442</v>
-      </c>
-      <c r="C51" s="70" t="s">
-        <v>443</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>444</v>
+      <c r="B51" s="64" t="s">
+        <v>437</v>
+      </c>
+      <c r="C51" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="B52" s="69"/>
-      <c r="C52" s="72" t="s">
-        <v>445</v>
-      </c>
-      <c r="D52" s="69"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" s="66"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="16">
         <v>45</v>
       </c>
-      <c r="B53" s="67" t="s">
-        <v>446</v>
-      </c>
-      <c r="C53" s="70" t="s">
-        <v>447</v>
-      </c>
-      <c r="D53" s="67" t="s">
-        <v>448</v>
+      <c r="B53" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C53" s="67" t="s">
+        <v>442</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="16">
         <v>46</v>
       </c>
-      <c r="B54" s="67" t="s">
-        <v>449</v>
-      </c>
-      <c r="C54" s="70" t="s">
-        <v>450</v>
-      </c>
-      <c r="D54" s="67" t="s">
-        <v>451</v>
+      <c r="B54" s="64" t="s">
+        <v>444</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="16">
         <v>47</v>
       </c>
-      <c r="B55" s="67" t="s">
-        <v>452</v>
-      </c>
-      <c r="C55" s="70" t="s">
-        <v>453</v>
-      </c>
-      <c r="D55" s="67" t="s">
-        <v>454</v>
+      <c r="B55" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="C55" s="67" t="s">
+        <v>448</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="16">
         <v>48</v>
       </c>
-      <c r="B56" s="67" t="s">
-        <v>455</v>
-      </c>
-      <c r="C56" s="70" t="s">
-        <v>456</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>457</v>
+      <c r="B56" s="64" t="s">
+        <v>450</v>
+      </c>
+      <c r="C56" s="67" t="s">
+        <v>451</v>
+      </c>
+      <c r="D56" s="64" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="16">
         <v>49</v>
       </c>
-      <c r="B57" s="67" t="s">
-        <v>458</v>
-      </c>
-      <c r="C57" s="70" t="s">
-        <v>459</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>460</v>
+      <c r="B57" s="64" t="s">
+        <v>453</v>
+      </c>
+      <c r="C57" s="67" t="s">
+        <v>454</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="16">
         <v>50</v>
       </c>
-      <c r="B58" s="67" t="s">
-        <v>573</v>
-      </c>
-      <c r="C58" s="67" t="s">
-        <v>461</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>574</v>
+      <c r="B58" s="64" t="s">
+        <v>568</v>
+      </c>
+      <c r="C58" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="D58" s="64" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="16">
         <v>51</v>
       </c>
-      <c r="B59" s="67" t="s">
-        <v>462</v>
-      </c>
-      <c r="C59" s="70" t="s">
-        <v>463</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>464</v>
+      <c r="B59" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="C59" s="67" t="s">
+        <v>458</v>
+      </c>
+      <c r="D59" s="64" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="B60" s="69"/>
-      <c r="C60" s="72" t="s">
-        <v>465</v>
-      </c>
-      <c r="D60" s="69"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69" t="s">
+        <v>460</v>
+      </c>
+      <c r="D60" s="66"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="16">
         <v>52</v>
       </c>
-      <c r="B61" s="67" t="s">
-        <v>466</v>
-      </c>
-      <c r="C61" s="70" t="s">
-        <v>467</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>468</v>
+      <c r="B61" s="64" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="67" t="s">
+        <v>462</v>
+      </c>
+      <c r="D61" s="64" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="16">
         <v>53</v>
       </c>
-      <c r="B62" s="67" t="s">
-        <v>469</v>
-      </c>
-      <c r="C62" s="70" t="s">
-        <v>470</v>
-      </c>
-      <c r="D62" s="67" t="s">
-        <v>471</v>
+      <c r="B62" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="C62" s="67" t="s">
+        <v>465</v>
+      </c>
+      <c r="D62" s="64" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="16">
         <v>54</v>
       </c>
-      <c r="B63" s="67" t="s">
-        <v>472</v>
-      </c>
-      <c r="C63" s="70" t="s">
-        <v>473</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>474</v>
+      <c r="B63" s="64" t="s">
+        <v>467</v>
+      </c>
+      <c r="C63" s="67" t="s">
+        <v>468</v>
+      </c>
+      <c r="D63" s="64" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="16">
         <v>55</v>
       </c>
-      <c r="B64" s="67" t="s">
-        <v>475</v>
-      </c>
-      <c r="C64" s="70" t="s">
-        <v>476</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>477</v>
+      <c r="B64" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C64" s="67" t="s">
+        <v>471</v>
+      </c>
+      <c r="D64" s="64" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="16">
         <v>56</v>
       </c>
-      <c r="B65" s="67" t="s">
-        <v>478</v>
-      </c>
-      <c r="C65" s="70" t="s">
-        <v>479</v>
-      </c>
-      <c r="D65" s="67" t="s">
-        <v>480</v>
+      <c r="B65" s="64" t="s">
+        <v>473</v>
+      </c>
+      <c r="C65" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="D65" s="64" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="16">
         <v>57</v>
       </c>
-      <c r="B66" s="67" t="s">
-        <v>481</v>
-      </c>
-      <c r="C66" s="70" t="s">
-        <v>482</v>
-      </c>
-      <c r="D66" s="67" t="s">
-        <v>483</v>
+      <c r="B66" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="C66" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="D66" s="64" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="B67" s="69"/>
-      <c r="C67" s="72" t="s">
-        <v>484</v>
-      </c>
-      <c r="D67" s="69"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="D67" s="66"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="16">
         <v>58</v>
       </c>
-      <c r="B68" s="67" t="s">
-        <v>485</v>
-      </c>
-      <c r="C68" s="70" t="s">
-        <v>486</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>487</v>
+      <c r="B68" s="64" t="s">
+        <v>480</v>
+      </c>
+      <c r="C68" s="67" t="s">
+        <v>481</v>
+      </c>
+      <c r="D68" s="64" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="16">
         <v>59</v>
       </c>
-      <c r="B69" s="67" t="s">
-        <v>488</v>
-      </c>
-      <c r="C69" s="70" t="s">
-        <v>489</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>490</v>
+      <c r="B69" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>484</v>
+      </c>
+      <c r="D69" s="64" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="16">
         <v>60</v>
       </c>
-      <c r="B70" s="67" t="s">
-        <v>491</v>
-      </c>
-      <c r="C70" s="70" t="s">
-        <v>492</v>
-      </c>
-      <c r="D70" s="67" t="s">
-        <v>493</v>
+      <c r="B70" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="C70" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="D70" s="64" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="B71" s="69"/>
-      <c r="C71" s="72" t="s">
-        <v>494</v>
-      </c>
-      <c r="D71" s="69"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="69" t="s">
+        <v>489</v>
+      </c>
+      <c r="D71" s="66"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="16">
         <v>61</v>
       </c>
-      <c r="B72" s="67" t="s">
-        <v>495</v>
-      </c>
-      <c r="C72" s="70" t="s">
-        <v>496</v>
-      </c>
-      <c r="D72" s="67" t="s">
-        <v>497</v>
+      <c r="B72" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="D72" s="64" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="16">
         <v>62</v>
       </c>
-      <c r="B73" s="67" t="s">
-        <v>498</v>
-      </c>
-      <c r="C73" s="70" t="s">
-        <v>499</v>
-      </c>
-      <c r="D73" s="67" t="s">
-        <v>500</v>
+      <c r="B73" s="64" t="s">
+        <v>493</v>
+      </c>
+      <c r="C73" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="D73" s="64" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="16">
         <v>63</v>
       </c>
-      <c r="B74" s="67" t="s">
-        <v>501</v>
-      </c>
-      <c r="C74" s="70" t="s">
-        <v>502</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>503</v>
+      <c r="B74" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="C74" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="D74" s="64" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="16">
         <v>64</v>
       </c>
-      <c r="B75" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="C75" s="70" t="s">
-        <v>505</v>
-      </c>
-      <c r="D75" s="67" t="s">
-        <v>506</v>
+      <c r="B75" s="64" t="s">
+        <v>499</v>
+      </c>
+      <c r="C75" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="D75" s="64" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="16">
         <v>65</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>507</v>
-      </c>
-      <c r="C76" s="70" t="s">
-        <v>508</v>
-      </c>
-      <c r="D76" s="67" t="s">
-        <v>509</v>
+      <c r="B76" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="C76" s="67" t="s">
+        <v>503</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="16">
         <v>66</v>
       </c>
-      <c r="B77" s="67" t="s">
-        <v>510</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>511</v>
-      </c>
-      <c r="D77" s="67" t="s">
-        <v>512</v>
+      <c r="B77" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="67" t="s">
+        <v>506</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="B78" s="69"/>
-      <c r="C78" s="72" t="s">
-        <v>513</v>
-      </c>
-      <c r="D78" s="69"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="D78" s="66"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="16">
         <v>67</v>
       </c>
-      <c r="B79" s="67" t="s">
-        <v>514</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>515</v>
-      </c>
-      <c r="D79" s="67" t="s">
-        <v>516</v>
+      <c r="B79" s="64" t="s">
+        <v>509</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>510</v>
+      </c>
+      <c r="D79" s="64" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="16">
         <v>68</v>
       </c>
-      <c r="B80" s="67" t="s">
-        <v>517</v>
-      </c>
-      <c r="C80" s="70" t="s">
-        <v>518</v>
-      </c>
-      <c r="D80" s="67" t="s">
-        <v>519</v>
+      <c r="B80" s="64" t="s">
+        <v>512</v>
+      </c>
+      <c r="C80" s="67" t="s">
+        <v>513</v>
+      </c>
+      <c r="D80" s="64" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="16">
         <v>69</v>
       </c>
-      <c r="B81" s="67" t="s">
-        <v>520</v>
-      </c>
-      <c r="C81" s="70" t="s">
-        <v>521</v>
-      </c>
-      <c r="D81" s="67" t="s">
-        <v>522</v>
+      <c r="B81" s="64" t="s">
+        <v>515</v>
+      </c>
+      <c r="C81" s="67" t="s">
+        <v>516</v>
+      </c>
+      <c r="D81" s="64" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="16">
         <v>70</v>
       </c>
-      <c r="B82" s="67" t="s">
-        <v>523</v>
-      </c>
-      <c r="C82" s="70" t="s">
-        <v>524</v>
-      </c>
-      <c r="D82" s="67" t="s">
-        <v>525</v>
+      <c r="B82" s="64" t="s">
+        <v>518</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>519</v>
+      </c>
+      <c r="D82" s="64" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="B83" s="69"/>
-      <c r="C83" s="72" t="s">
-        <v>526</v>
-      </c>
-      <c r="D83" s="69"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="69" t="s">
+        <v>521</v>
+      </c>
+      <c r="D83" s="66"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="16">
         <v>71</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>527</v>
-      </c>
-      <c r="C84" s="70" t="s">
-        <v>528</v>
-      </c>
-      <c r="D84" s="67" t="s">
-        <v>529</v>
+      <c r="B84" s="64" t="s">
+        <v>522</v>
+      </c>
+      <c r="C84" s="67" t="s">
+        <v>523</v>
+      </c>
+      <c r="D84" s="64" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="B85" s="69"/>
-      <c r="C85" s="73" t="s">
-        <v>569</v>
-      </c>
-      <c r="D85" s="69"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="70" t="s">
+        <v>564</v>
+      </c>
+      <c r="D85" s="66"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="16">
         <v>72</v>
       </c>
-      <c r="B86" s="67" t="s">
-        <v>530</v>
-      </c>
-      <c r="C86" s="70" t="s">
-        <v>531</v>
-      </c>
-      <c r="D86" s="67" t="s">
-        <v>532</v>
+      <c r="B86" s="64" t="s">
+        <v>525</v>
+      </c>
+      <c r="C86" s="67" t="s">
+        <v>526</v>
+      </c>
+      <c r="D86" s="64" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="16">
         <v>73</v>
       </c>
-      <c r="B87" s="67" t="s">
-        <v>533</v>
-      </c>
-      <c r="C87" s="70" t="s">
-        <v>534</v>
-      </c>
-      <c r="D87" s="67" t="s">
-        <v>535</v>
+      <c r="B87" s="64" t="s">
+        <v>528</v>
+      </c>
+      <c r="C87" s="67" t="s">
+        <v>529</v>
+      </c>
+      <c r="D87" s="64" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="16">
         <v>74</v>
       </c>
-      <c r="B88" s="67" t="s">
-        <v>536</v>
-      </c>
-      <c r="C88" s="70" t="s">
-        <v>537</v>
-      </c>
-      <c r="D88" s="67" t="s">
-        <v>538</v>
+      <c r="B88" s="64" t="s">
+        <v>531</v>
+      </c>
+      <c r="C88" s="67" t="s">
+        <v>532</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="16">
         <v>75</v>
       </c>
-      <c r="B89" s="67" t="s">
-        <v>539</v>
-      </c>
-      <c r="C89" s="70" t="s">
-        <v>540</v>
-      </c>
-      <c r="D89" s="67" t="s">
-        <v>541</v>
+      <c r="B89" s="64" t="s">
+        <v>534</v>
+      </c>
+      <c r="C89" s="67" t="s">
+        <v>535</v>
+      </c>
+      <c r="D89" s="64" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="16">
         <v>76</v>
       </c>
-      <c r="B90" s="67" t="s">
-        <v>542</v>
-      </c>
-      <c r="C90" s="70" t="s">
-        <v>543</v>
-      </c>
-      <c r="D90" s="67" t="s">
-        <v>544</v>
+      <c r="B90" s="64" t="s">
+        <v>537</v>
+      </c>
+      <c r="C90" s="67" t="s">
+        <v>538</v>
+      </c>
+      <c r="D90" s="64" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="B91" s="69"/>
-      <c r="C91" s="72" t="s">
-        <v>545</v>
-      </c>
-      <c r="D91" s="69"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="69" t="s">
+        <v>540</v>
+      </c>
+      <c r="D91" s="66"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="16">
         <v>77</v>
       </c>
-      <c r="B92" s="67" t="s">
-        <v>546</v>
-      </c>
-      <c r="C92" s="70" t="s">
-        <v>547</v>
-      </c>
-      <c r="D92" s="67" t="s">
-        <v>548</v>
+      <c r="B92" s="64" t="s">
+        <v>541</v>
+      </c>
+      <c r="C92" s="67" t="s">
+        <v>542</v>
+      </c>
+      <c r="D92" s="64" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="16">
         <v>78</v>
       </c>
-      <c r="B93" s="67" t="s">
-        <v>549</v>
-      </c>
-      <c r="C93" s="70" t="s">
-        <v>550</v>
-      </c>
-      <c r="D93" s="67" t="s">
-        <v>551</v>
+      <c r="B93" s="64" t="s">
+        <v>544</v>
+      </c>
+      <c r="C93" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D93" s="64" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="16">
         <v>79</v>
       </c>
-      <c r="B94" s="67" t="s">
-        <v>552</v>
-      </c>
-      <c r="C94" s="70" t="s">
-        <v>553</v>
-      </c>
-      <c r="D94" s="67" t="s">
-        <v>554</v>
+      <c r="B94" s="64" t="s">
+        <v>547</v>
+      </c>
+      <c r="C94" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="D94" s="64" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="16">
         <v>80</v>
       </c>
-      <c r="B95" s="67" t="s">
-        <v>555</v>
-      </c>
-      <c r="C95" s="70" t="s">
-        <v>556</v>
-      </c>
-      <c r="D95" s="67" t="s">
-        <v>557</v>
+      <c r="B95" s="64" t="s">
+        <v>550</v>
+      </c>
+      <c r="C95" s="67" t="s">
+        <v>551</v>
+      </c>
+      <c r="D95" s="64" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="16">
         <v>81</v>
       </c>
-      <c r="B96" s="67" t="s">
-        <v>558</v>
-      </c>
-      <c r="C96" s="70" t="s">
-        <v>559</v>
-      </c>
-      <c r="D96" s="67" t="s">
-        <v>560</v>
+      <c r="B96" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="C96" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="16">
         <v>82</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>561</v>
-      </c>
-      <c r="C97" s="70" t="s">
-        <v>562</v>
-      </c>
-      <c r="D97" s="67" t="s">
-        <v>563</v>
+      <c r="B97" s="64" t="s">
+        <v>556</v>
+      </c>
+      <c r="C97" s="67" t="s">
+        <v>557</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="B98" s="69"/>
-      <c r="C98" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="D98" s="69"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="70" t="s">
+        <v>565</v>
+      </c>
+      <c r="D98" s="66"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="B99" s="69"/>
-      <c r="C99" s="73" t="s">
-        <v>571</v>
-      </c>
-      <c r="D99" s="69"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="70" t="s">
+        <v>566</v>
+      </c>
+      <c r="D99" s="66"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="B100" s="69"/>
-      <c r="C100" s="73" t="s">
-        <v>572</v>
-      </c>
-      <c r="D100" s="69"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="70" t="s">
+        <v>567</v>
+      </c>
+      <c r="D100" s="66"/>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="16">
         <v>83</v>
       </c>
-      <c r="B101" s="67" t="s">
-        <v>564</v>
-      </c>
-      <c r="C101" s="70" t="s">
-        <v>565</v>
-      </c>
-      <c r="D101" s="67" t="s">
-        <v>566</v>
+      <c r="B101" s="64" t="s">
+        <v>559</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="D101" s="64" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="586">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1955,6 +1955,14 @@
   </si>
   <si>
     <t>周生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新硬件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2718,13 +2726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I84" sqref="I84"/>
+      <selection pane="bottomRight" activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4681,6 +4689,61 @@
       <c r="F91" s="8"/>
       <c r="G91" s="25" t="s">
         <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="14.25">
+      <c r="A92" s="1">
+        <v>180701010000001</v>
+      </c>
+      <c r="B92" s="56">
+        <v>867900040029590</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G92" s="37" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.25">
+      <c r="A93" s="1">
+        <v>180701010001381</v>
+      </c>
+      <c r="B93" s="56">
+        <v>867900040032503</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.25">
+      <c r="A94" s="1">
+        <v>180701010001382</v>
+      </c>
+      <c r="B94" s="56">
+        <v>867900040208186</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.25">
+      <c r="A95" s="1">
+        <v>180701010001064</v>
+      </c>
+      <c r="B95" s="56">
+        <v>867900040223953</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.25">
+      <c r="A96" s="1">
+        <v>180701010000245</v>
+      </c>
+      <c r="B96" s="56">
+        <v>867900040094578</v>
       </c>
     </row>
   </sheetData>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="3188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="3190">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9793,6 +9793,14 @@
   </si>
   <si>
     <t>黄伟彬  13681652452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独前面板发往能投</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10568,7 +10576,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H326" sqref="H326"/>
+      <selection pane="bottomRight" activeCell="I327" sqref="I327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14336,7 +14344,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:9">
       <c r="A321" s="62" t="s">
         <v>712</v>
       </c>
@@ -14344,7 +14352,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:9">
       <c r="A322" s="62" t="s">
         <v>713</v>
       </c>
@@ -14352,7 +14360,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:9">
       <c r="A323" s="62" t="s">
         <v>714</v>
       </c>
@@ -14360,7 +14368,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:9">
       <c r="A324" s="62" t="s">
         <v>715</v>
       </c>
@@ -14370,9 +14378,14 @@
       <c r="C324" s="4" t="s">
         <v>3185</v>
       </c>
-      <c r="G324" s="82"/>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="G324" s="82" t="s">
+        <v>3188</v>
+      </c>
+      <c r="I324" s="30" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9">
       <c r="A325" s="62" t="s">
         <v>716</v>
       </c>
@@ -14380,7 +14393,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:9">
       <c r="A326" s="62" t="s">
         <v>717</v>
       </c>
@@ -14388,7 +14401,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:9">
       <c r="A327" s="62" t="s">
         <v>718</v>
       </c>
@@ -14396,7 +14409,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:9">
       <c r="A328" s="62" t="s">
         <v>719</v>
       </c>
@@ -14404,7 +14417,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:9">
       <c r="A329" s="62" t="s">
         <v>720</v>
       </c>
@@ -14412,7 +14425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:9">
       <c r="A330" s="62" t="s">
         <v>721</v>
       </c>
@@ -14420,7 +14433,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:9">
       <c r="A331" s="62" t="s">
         <v>722</v>
       </c>
@@ -14428,7 +14441,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:9">
       <c r="A332" s="62" t="s">
         <v>723</v>
       </c>
@@ -14436,7 +14449,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:9">
       <c r="A333" s="62" t="s">
         <v>724</v>
       </c>
@@ -14444,7 +14457,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:9">
       <c r="A334" s="62" t="s">
         <v>725</v>
       </c>
@@ -14452,7 +14465,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:9">
       <c r="A335" s="62" t="s">
         <v>726</v>
       </c>
@@ -14460,7 +14473,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9">
       <c r="A336" s="62" t="s">
         <v>727</v>
       </c>

--- a/门锁统计表单.xlsx
+++ b/门锁统计表单.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="3190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="3195">
   <si>
     <t>门锁编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9802,6 +9802,26 @@
   </si>
   <si>
     <t>单独前面板发往能投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆超常悦电子科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈正仲18083020861</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆市九龙坡区彩云大道11号万科西城1-1205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改为181004010000001，移动旧外观，此设备号删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9990,7 +10010,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -10028,6 +10048,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10038,7 +10095,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10274,6 +10331,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10574,7 +10640,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B107" sqref="B107"/>
@@ -13017,13 +13083,13 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="2" width="8.125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
     <col min="4" max="4" width="63.375" customWidth="1"/>
     <col min="5" max="5" width="49.25" customWidth="1"/>
@@ -13394,10 +13460,18 @@
       <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:5" ht="14.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="A29" s="26" t="s">
+        <v>3190</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>3192</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>3193</v>
+      </c>
       <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:5" ht="14.25">
@@ -14774,8 +14848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1384"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="M231" sqref="M231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18157,12 +18231,14 @@
         <v>2018</v>
       </c>
       <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
-      <c r="E225" s="4"/>
-      <c r="F225" s="4"/>
-      <c r="G225" s="36"/>
-      <c r="H225" s="30"/>
-      <c r="I225" s="30"/>
+      <c r="D225" s="83" t="s">
+        <v>3194</v>
+      </c>
+      <c r="E225" s="84"/>
+      <c r="F225" s="84"/>
+      <c r="G225" s="84"/>
+      <c r="H225" s="84"/>
+      <c r="I225" s="85"/>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="62" t="s">
@@ -19484,7 +19560,7 @@
       <c r="H313" s="30"/>
       <c r="I313" s="30"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" ht="36">
       <c r="A314" s="62" t="s">
         <v>805</v>
       </c>
@@ -35556,6 +35632,9 @@
       <c r="I1384" s="30"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D225:I225"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G314" location="客户表单!A28" display="上海筝际信息技术有限公司"/>
